--- a/SDG-Matrix/Output/series_catalog.xlsx
+++ b/SDG-Matrix/Output/series_catalog.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3983" uniqueCount="789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4019" uniqueCount="807">
   <si>
     <t>GOAL</t>
   </si>
@@ -2463,6 +2463,72 @@
   </si>
   <si>
     <t>DC_TOF_TRDDBML</t>
+  </si>
+  <si>
+    <t>NV_IND_MANF</t>
+  </si>
+  <si>
+    <t>NV_IND_MANFPC</t>
+  </si>
+  <si>
+    <t>SL_TLF_MANF</t>
+  </si>
+  <si>
+    <t>NV_IND_SSIS</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FF777777"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>GB_POP_SCIERD</t>
+    </r>
+  </si>
+  <si>
+    <t>EN_ATM_CO2</t>
+  </si>
+  <si>
+    <t>NV_IND_TECH</t>
+  </si>
+  <si>
+    <t>IT_MOB_NTWK</t>
+  </si>
+  <si>
+    <t>SI_HEI_TOTL</t>
+  </si>
+  <si>
+    <t>SI_RMT_COST</t>
+  </si>
+  <si>
+    <t>SG_SCP_CNTRY</t>
+  </si>
+  <si>
+    <t>AG_LND_FRST</t>
+  </si>
+  <si>
+    <t>ER_PTD_TERRS</t>
+  </si>
+  <si>
+    <t>ER_PTD_MOTN</t>
+  </si>
+  <si>
+    <t>ER_MTN_GRNCVI</t>
+  </si>
+  <si>
+    <t>ER_RSK_LSTI</t>
+  </si>
+  <si>
+    <t>DC_ODA_BDVDL</t>
+  </si>
+  <si>
+    <t>VC_IHR_PSRCN</t>
   </si>
 </sst>
 </file>
@@ -2552,7 +2618,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2566,6 +2632,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2907,9 +2974,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AJ296"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="11" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A193" sqref="A193:XFD195"/>
+      <selection pane="topRight" activeCell="J234" sqref="J234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8966,7 +9033,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="140" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>42</v>
       </c>
@@ -9010,7 +9077,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="141" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>42</v>
       </c>
@@ -9057,7 +9124,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="142" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>42</v>
       </c>
@@ -9104,7 +9171,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="143" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>42</v>
       </c>
@@ -9148,7 +9215,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="144" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>42</v>
       </c>
@@ -9192,7 +9259,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="145" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>42</v>
       </c>
@@ -9236,7 +9303,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="146" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>42</v>
       </c>
@@ -9280,7 +9347,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="147" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>42</v>
       </c>
@@ -9327,7 +9394,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="148" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>42</v>
       </c>
@@ -9371,7 +9438,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="149" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>42</v>
       </c>
@@ -9415,7 +9482,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="150" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>42</v>
       </c>
@@ -9459,7 +9526,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="151" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>42</v>
       </c>
@@ -9506,7 +9573,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="152" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>42</v>
       </c>
@@ -9553,7 +9620,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="153" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>42</v>
       </c>
@@ -9600,7 +9667,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="154" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>42</v>
       </c>
@@ -9647,7 +9714,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="155" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>42</v>
       </c>
@@ -9694,7 +9761,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="156" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>42</v>
       </c>
@@ -9741,7 +9808,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="157" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>42</v>
       </c>
@@ -9788,7 +9855,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="158" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>42</v>
       </c>
@@ -9835,7 +9902,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="159" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>42</v>
       </c>
@@ -9882,7 +9949,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="160" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>42</v>
       </c>
@@ -9929,7 +9996,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="161" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>42</v>
       </c>
@@ -9976,7 +10043,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="162" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>42</v>
       </c>
@@ -10023,7 +10090,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="163" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>42</v>
       </c>
@@ -10070,7 +10137,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="164" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>42</v>
       </c>
@@ -10117,7 +10184,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="165" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>42</v>
       </c>
@@ -10161,7 +10228,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="166" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>42</v>
       </c>
@@ -10205,7 +10272,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="167" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>42</v>
       </c>
@@ -10249,7 +10316,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="168" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>42</v>
       </c>
@@ -10293,7 +10360,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="169" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>42</v>
       </c>
@@ -10337,7 +10404,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="170" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>42</v>
       </c>
@@ -10381,7 +10448,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="171" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>42</v>
       </c>
@@ -10425,7 +10492,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="172" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>42</v>
       </c>
@@ -10469,7 +10536,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="173" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>42</v>
       </c>
@@ -10513,7 +10580,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="174" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>42</v>
       </c>
@@ -10557,7 +10624,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="175" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>42</v>
       </c>
@@ -10601,7 +10668,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="176" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>42</v>
       </c>
@@ -10645,7 +10712,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="177" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>42</v>
       </c>
@@ -10689,7 +10756,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="178" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>42</v>
       </c>
@@ -10733,7 +10800,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="179" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>42</v>
       </c>
@@ -10777,7 +10844,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="180" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>42</v>
       </c>
@@ -10821,7 +10888,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="181" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>42</v>
       </c>
@@ -10865,7 +10932,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="182" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>42</v>
       </c>
@@ -10909,7 +10976,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="183" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>42</v>
       </c>
@@ -10953,7 +11020,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="184" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>42</v>
       </c>
@@ -10997,7 +11064,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="185" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>42</v>
       </c>
@@ -11041,7 +11108,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="186" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:34" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" s="5" t="s">
         <v>42</v>
       </c>
@@ -11084,7 +11151,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="187" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:34" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" s="5" t="s">
         <v>42</v>
       </c>
@@ -11130,7 +11197,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="188" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:34" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" s="5" t="s">
         <v>42</v>
       </c>
@@ -11176,7 +11243,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="189" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:34" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189" s="5" t="s">
         <v>42</v>
       </c>
@@ -11222,7 +11289,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="190" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:34" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" s="5" t="s">
         <v>42</v>
       </c>
@@ -11265,7 +11332,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="191" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:34" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191" s="5" t="s">
         <v>42</v>
       </c>
@@ -11308,7 +11375,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="192" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:34" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" s="8" t="s">
         <v>42</v>
       </c>
@@ -11351,7 +11418,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="193" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:36" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" s="8" t="s">
         <v>42</v>
       </c>
@@ -11400,7 +11467,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="194" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:36" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194" s="8" t="s">
         <v>42</v>
       </c>
@@ -11446,7 +11513,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="195" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:36" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195" s="8" t="s">
         <v>42</v>
       </c>
@@ -11520,6 +11587,9 @@
       <c r="J196" t="s">
         <v>417</v>
       </c>
+      <c r="K196" s="4" t="s">
+        <v>789</v>
+      </c>
       <c r="L196" t="s">
         <v>511</v>
       </c>
@@ -11564,6 +11634,9 @@
       <c r="J197" t="s">
         <v>417</v>
       </c>
+      <c r="K197" s="4" t="s">
+        <v>790</v>
+      </c>
       <c r="L197" t="s">
         <v>512</v>
       </c>
@@ -11608,6 +11681,9 @@
       <c r="J198" t="s">
         <v>417</v>
       </c>
+      <c r="K198" s="4" t="s">
+        <v>789</v>
+      </c>
       <c r="L198" t="s">
         <v>511</v>
       </c>
@@ -11652,6 +11728,9 @@
       <c r="J199" t="s">
         <v>418</v>
       </c>
+      <c r="K199" s="4" t="s">
+        <v>791</v>
+      </c>
       <c r="L199" t="s">
         <v>513</v>
       </c>
@@ -11693,6 +11772,9 @@
       <c r="J200" t="s">
         <v>418</v>
       </c>
+      <c r="K200" s="4" t="s">
+        <v>791</v>
+      </c>
       <c r="L200" t="s">
         <v>513</v>
       </c>
@@ -11734,6 +11816,9 @@
       <c r="J201" t="s">
         <v>418</v>
       </c>
+      <c r="K201" s="4" t="s">
+        <v>791</v>
+      </c>
       <c r="L201" t="s">
         <v>513</v>
       </c>
@@ -11775,6 +11860,9 @@
       <c r="J202" t="s">
         <v>419</v>
       </c>
+      <c r="K202" s="4" t="s">
+        <v>792</v>
+      </c>
       <c r="L202" t="s">
         <v>514</v>
       </c>
@@ -11816,6 +11904,9 @@
       <c r="J203" t="s">
         <v>420</v>
       </c>
+      <c r="K203" s="4" t="s">
+        <v>794</v>
+      </c>
       <c r="L203" t="s">
         <v>515</v>
       </c>
@@ -11857,6 +11948,9 @@
       <c r="J204" t="s">
         <v>421</v>
       </c>
+      <c r="K204" s="7" t="s">
+        <v>793</v>
+      </c>
       <c r="L204" t="s">
         <v>516</v>
       </c>
@@ -11898,6 +11992,9 @@
       <c r="J205" t="s">
         <v>422</v>
       </c>
+      <c r="K205" s="4" t="s">
+        <v>795</v>
+      </c>
       <c r="L205" t="s">
         <v>517</v>
       </c>
@@ -11939,6 +12036,9 @@
       <c r="J206" t="s">
         <v>422</v>
       </c>
+      <c r="K206" s="4" t="s">
+        <v>795</v>
+      </c>
       <c r="L206" t="s">
         <v>517</v>
       </c>
@@ -11980,6 +12080,9 @@
       <c r="J207" t="s">
         <v>423</v>
       </c>
+      <c r="K207" s="4" t="s">
+        <v>796</v>
+      </c>
       <c r="L207" t="s">
         <v>518</v>
       </c>
@@ -11996,41 +12099,46 @@
         <v>714</v>
       </c>
     </row>
-    <row r="208" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A208" t="s">
+    <row r="208" spans="1:36" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A208" s="8" t="s">
         <v>44</v>
       </c>
       <c r="B208" t="s">
         <v>57</v>
       </c>
-      <c r="C208" t="s">
+      <c r="C208" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D208" t="s">
+      <c r="D208" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="F208" t="s">
+      <c r="E208"/>
+      <c r="F208" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="G208" t="s">
+      <c r="G208" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="H208" t="s">
+      <c r="H208" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="J208" t="s">
+      <c r="I208"/>
+      <c r="J208" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="L208" t="s">
+      <c r="K208" s="9" t="s">
+        <v>797</v>
+      </c>
+      <c r="L208" s="8" t="s">
         <v>519</v>
       </c>
-      <c r="AB208" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="AC208" t="s">
+      <c r="AB208" s="8" t="s">
+        <v>692</v>
+      </c>
+      <c r="AC208" s="8" t="s">
         <v>698</v>
       </c>
-      <c r="AH208" t="s">
+      <c r="AH208" s="8" t="s">
         <v>706</v>
       </c>
     </row>
@@ -12059,6 +12167,9 @@
       <c r="J209" t="s">
         <v>425</v>
       </c>
+      <c r="K209" s="4" t="s">
+        <v>798</v>
+      </c>
       <c r="L209" t="s">
         <v>520</v>
       </c>
@@ -12094,6 +12205,9 @@
       <c r="J210" t="s">
         <v>426</v>
       </c>
+      <c r="K210" s="4" t="s">
+        <v>738</v>
+      </c>
       <c r="L210" t="s">
         <v>521</v>
       </c>
@@ -12135,6 +12249,9 @@
       <c r="J211" t="s">
         <v>426</v>
       </c>
+      <c r="K211" s="4" t="s">
+        <v>736</v>
+      </c>
       <c r="L211" t="s">
         <v>522</v>
       </c>
@@ -12176,6 +12293,9 @@
       <c r="J212" t="s">
         <v>426</v>
       </c>
+      <c r="K212" s="4" t="s">
+        <v>737</v>
+      </c>
       <c r="L212" t="s">
         <v>523</v>
       </c>
@@ -12217,6 +12337,9 @@
       <c r="J213" t="s">
         <v>427</v>
       </c>
+      <c r="K213" s="4" t="s">
+        <v>740</v>
+      </c>
       <c r="L213" t="s">
         <v>524</v>
       </c>
@@ -12236,346 +12359,380 @@
         <v>714</v>
       </c>
     </row>
-    <row r="214" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A214" t="s">
+    <row r="214" spans="1:36" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A214" s="8" t="s">
         <v>46</v>
       </c>
       <c r="B214" t="s">
         <v>59</v>
       </c>
-      <c r="C214" t="s">
+      <c r="C214" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D214" t="s">
+      <c r="D214" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="F214" t="s">
+      <c r="E214"/>
+      <c r="F214" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="G214" t="s">
+      <c r="G214" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="H214" t="s">
+      <c r="H214" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="J214" t="s">
+      <c r="I214"/>
+      <c r="J214" s="8" t="s">
         <v>428</v>
       </c>
-      <c r="L214" t="s">
+      <c r="K214" s="9" t="s">
+        <v>799</v>
+      </c>
+      <c r="L214" s="8" t="s">
         <v>525</v>
       </c>
-      <c r="AB214" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="AD214" t="s">
+      <c r="AB214" s="8" t="s">
+        <v>692</v>
+      </c>
+      <c r="AD214" s="8" t="s">
         <v>698</v>
       </c>
-      <c r="AH214" t="s">
+      <c r="AH214" s="8" t="s">
         <v>720</v>
       </c>
-      <c r="AJ214" t="s">
+      <c r="AJ214" s="8" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="215" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A215" t="s">
+    <row r="215" spans="1:36" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A215" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B215" t="s">
         <v>59</v>
       </c>
-      <c r="C215" t="s">
+      <c r="C215" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D215" t="s">
+      <c r="D215" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F215" t="s">
+      <c r="E215"/>
+      <c r="F215" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="G215" t="s">
+      <c r="G215" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="H215" t="s">
+      <c r="H215" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="J215" t="s">
+      <c r="I215"/>
+      <c r="J215" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="L215" t="s">
+      <c r="L215" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="AB215" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="AD215" t="s">
+      <c r="AB215" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="AD215" s="5" t="s">
         <v>698</v>
       </c>
-      <c r="AH215" t="s">
+      <c r="AH215" s="5" t="s">
         <v>721</v>
       </c>
-      <c r="AJ215" t="s">
+      <c r="AJ215" s="5" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="216" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A216" t="s">
+    <row r="216" spans="1:36" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A216" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B216" t="s">
         <v>59</v>
       </c>
-      <c r="C216" t="s">
+      <c r="C216" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D216" t="s">
+      <c r="D216" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F216" t="s">
+      <c r="E216"/>
+      <c r="F216" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="G216" t="s">
+      <c r="G216" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="H216" t="s">
+      <c r="H216" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="J216" t="s">
+      <c r="I216"/>
+      <c r="J216" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="L216" t="s">
+      <c r="L216" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="AB216" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="AD216" t="s">
+      <c r="AB216" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="AD216" s="5" t="s">
         <v>698</v>
       </c>
-      <c r="AH216" t="s">
+      <c r="AH216" s="5" t="s">
         <v>721</v>
       </c>
-      <c r="AJ216" t="s">
+      <c r="AJ216" s="5" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="217" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A217" t="s">
+    <row r="217" spans="1:36" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A217" s="8" t="s">
         <v>47</v>
       </c>
       <c r="B217" t="s">
         <v>60</v>
       </c>
-      <c r="C217" t="s">
+      <c r="C217" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D217" t="s">
+      <c r="D217" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="F217" t="s">
+      <c r="E217"/>
+      <c r="F217" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="G217" t="s">
+      <c r="G217" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="H217" t="s">
+      <c r="H217" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="J217" t="s">
+      <c r="I217"/>
+      <c r="J217" s="8" t="s">
         <v>426</v>
       </c>
-      <c r="L217" t="s">
+      <c r="K217" s="9" t="s">
+        <v>736</v>
+      </c>
+      <c r="L217" s="8" t="s">
         <v>527</v>
       </c>
-      <c r="M217" t="s">
+      <c r="M217" s="8" t="s">
         <v>583</v>
       </c>
-      <c r="N217" t="s">
+      <c r="N217" s="8" t="s">
         <v>623</v>
       </c>
-      <c r="AB217" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="AD217" t="s">
+      <c r="AB217" s="8" t="s">
+        <v>692</v>
+      </c>
+      <c r="AD217" s="8" t="s">
         <v>698</v>
       </c>
-      <c r="AH217" t="s">
+      <c r="AH217" s="8" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="218" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A218" t="s">
+    <row r="218" spans="1:36" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A218" s="8" t="s">
         <v>47</v>
       </c>
       <c r="B218" t="s">
         <v>60</v>
       </c>
-      <c r="C218" t="s">
+      <c r="C218" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D218" t="s">
+      <c r="D218" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="F218" t="s">
+      <c r="E218"/>
+      <c r="F218" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="G218" t="s">
+      <c r="G218" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="H218" t="s">
+      <c r="H218" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="J218" t="s">
+      <c r="I218"/>
+      <c r="J218" s="8" t="s">
         <v>426</v>
       </c>
-      <c r="L218" t="s">
+      <c r="K218" s="9" t="s">
+        <v>736</v>
+      </c>
+      <c r="L218" s="8" t="s">
         <v>528</v>
       </c>
-      <c r="M218" t="s">
+      <c r="M218" s="8" t="s">
         <v>583</v>
       </c>
-      <c r="N218" t="s">
+      <c r="N218" s="8" t="s">
         <v>623</v>
       </c>
-      <c r="AB218" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="AD218" t="s">
+      <c r="AB218" s="8" t="s">
+        <v>692</v>
+      </c>
+      <c r="AD218" s="8" t="s">
         <v>698</v>
       </c>
-      <c r="AH218" t="s">
+      <c r="AH218" s="8" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="219" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A219" t="s">
+    <row r="219" spans="1:36" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A219" s="8" t="s">
         <v>47</v>
       </c>
       <c r="B219" t="s">
         <v>60</v>
       </c>
-      <c r="C219" t="s">
+      <c r="C219" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D219" t="s">
+      <c r="D219" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="F219" t="s">
+      <c r="E219"/>
+      <c r="F219" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="G219" t="s">
+      <c r="G219" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="H219" t="s">
+      <c r="H219" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="J219" t="s">
+      <c r="I219"/>
+      <c r="J219" s="8" t="s">
         <v>426</v>
       </c>
-      <c r="L219" t="s">
+      <c r="K219" s="9" t="s">
+        <v>736</v>
+      </c>
+      <c r="L219" s="8" t="s">
         <v>529</v>
       </c>
-      <c r="M219" t="s">
+      <c r="M219" s="8" t="s">
         <v>583</v>
       </c>
-      <c r="N219" t="s">
+      <c r="N219" s="8" t="s">
         <v>623</v>
       </c>
-      <c r="AB219" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="AD219" t="s">
+      <c r="AB219" s="8" t="s">
+        <v>692</v>
+      </c>
+      <c r="AD219" s="8" t="s">
         <v>698</v>
       </c>
-      <c r="AH219" t="s">
+      <c r="AH219" s="8" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="220" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A220" t="s">
+    <row r="220" spans="1:36" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A220" s="8" t="s">
         <v>47</v>
       </c>
       <c r="B220" t="s">
         <v>60</v>
       </c>
-      <c r="C220" t="s">
+      <c r="C220" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D220" t="s">
+      <c r="D220" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="F220" t="s">
+      <c r="E220"/>
+      <c r="F220" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="G220" t="s">
+      <c r="G220" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="H220" t="s">
+      <c r="H220" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="J220" t="s">
+      <c r="I220"/>
+      <c r="J220" s="8" t="s">
         <v>426</v>
       </c>
-      <c r="L220" t="s">
+      <c r="K220" s="9" t="s">
+        <v>737</v>
+      </c>
+      <c r="L220" s="8" t="s">
         <v>530</v>
       </c>
-      <c r="M220" t="s">
+      <c r="M220" s="8" t="s">
         <v>584</v>
       </c>
-      <c r="N220" t="s">
+      <c r="N220" s="8" t="s">
         <v>624</v>
       </c>
-      <c r="AB220" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="AD220" t="s">
+      <c r="AB220" s="8" t="s">
+        <v>692</v>
+      </c>
+      <c r="AD220" s="8" t="s">
         <v>698</v>
       </c>
-      <c r="AH220" t="s">
+      <c r="AH220" s="8" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="221" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A221" t="s">
+    <row r="221" spans="1:36" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A221" s="8" t="s">
         <v>47</v>
       </c>
       <c r="B221" t="s">
         <v>60</v>
       </c>
-      <c r="C221" t="s">
+      <c r="C221" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D221" t="s">
+      <c r="D221" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="F221" t="s">
+      <c r="E221"/>
+      <c r="F221" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="G221" t="s">
+      <c r="G221" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="H221" t="s">
+      <c r="H221" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="J221" t="s">
+      <c r="I221"/>
+      <c r="J221" s="8" t="s">
         <v>426</v>
       </c>
-      <c r="L221" t="s">
+      <c r="K221" s="9" t="s">
+        <v>738</v>
+      </c>
+      <c r="L221" s="8" t="s">
         <v>531</v>
       </c>
-      <c r="M221" t="s">
+      <c r="M221" s="8" t="s">
         <v>582</v>
       </c>
-      <c r="N221" t="s">
+      <c r="N221" s="8" t="s">
         <v>622</v>
       </c>
-      <c r="AB221" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="AD221" t="s">
+      <c r="AB221" s="8" t="s">
+        <v>692</v>
+      </c>
+      <c r="AD221" s="8" t="s">
         <v>698</v>
       </c>
-      <c r="AH221" t="s">
+      <c r="AH221" s="8" t="s">
         <v>722</v>
       </c>
     </row>
@@ -12604,6 +12761,9 @@
       <c r="J222" t="s">
         <v>430</v>
       </c>
+      <c r="K222" s="4" t="s">
+        <v>800</v>
+      </c>
       <c r="L222" t="s">
         <v>532</v>
       </c>
@@ -12642,6 +12802,9 @@
       <c r="J223" t="s">
         <v>431</v>
       </c>
+      <c r="K223" s="4" t="s">
+        <v>800</v>
+      </c>
       <c r="L223" t="s">
         <v>532</v>
       </c>
@@ -12680,6 +12843,9 @@
       <c r="J224" t="s">
         <v>432</v>
       </c>
+      <c r="K224" s="4" t="s">
+        <v>801</v>
+      </c>
       <c r="L224" t="s">
         <v>533</v>
       </c>
@@ -12718,6 +12884,9 @@
       <c r="J225" t="s">
         <v>433</v>
       </c>
+      <c r="K225" s="4" t="s">
+        <v>802</v>
+      </c>
       <c r="L225" t="s">
         <v>534</v>
       </c>
@@ -12756,6 +12925,9 @@
       <c r="J226" t="s">
         <v>434</v>
       </c>
+      <c r="K226" s="4" t="s">
+        <v>803</v>
+      </c>
       <c r="L226" t="s">
         <v>535</v>
       </c>
@@ -12794,6 +12966,9 @@
       <c r="J227" t="s">
         <v>435</v>
       </c>
+      <c r="K227" s="4" t="s">
+        <v>804</v>
+      </c>
       <c r="L227" t="s">
         <v>536</v>
       </c>
@@ -12807,223 +12982,253 @@
         <v>714</v>
       </c>
     </row>
-    <row r="228" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A228" t="s">
+    <row r="228" spans="1:34" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A228" s="8" t="s">
         <v>48</v>
       </c>
       <c r="B228" t="s">
         <v>61</v>
       </c>
-      <c r="C228" t="s">
+      <c r="C228" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D228" t="s">
+      <c r="D228" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="F228" t="s">
+      <c r="E228"/>
+      <c r="F228" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="G228" t="s">
+      <c r="G228" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="H228" t="s">
+      <c r="H228" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="J228" t="s">
+      <c r="I228"/>
+      <c r="J228" s="8" t="s">
         <v>436</v>
       </c>
-      <c r="L228" t="s">
+      <c r="K228" s="9" t="s">
+        <v>805</v>
+      </c>
+      <c r="L228" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="AB228" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="AD228" t="s">
+      <c r="AB228" s="8" t="s">
+        <v>692</v>
+      </c>
+      <c r="AD228" s="8" t="s">
         <v>698</v>
       </c>
-      <c r="AH228" t="s">
+      <c r="AH228" s="8" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="229" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A229" t="s">
+    <row r="229" spans="1:34" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A229" s="8" t="s">
         <v>48</v>
       </c>
       <c r="B229" t="s">
         <v>61</v>
       </c>
-      <c r="C229" t="s">
+      <c r="C229" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D229" t="s">
+      <c r="D229" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="F229" t="s">
+      <c r="E229"/>
+      <c r="F229" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="G229" t="s">
+      <c r="G229" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="H229" t="s">
+      <c r="H229" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="J229" t="s">
+      <c r="I229"/>
+      <c r="J229" s="8" t="s">
         <v>436</v>
       </c>
-      <c r="L229" t="s">
+      <c r="K229" s="9" t="s">
+        <v>805</v>
+      </c>
+      <c r="L229" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="AB229" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="AD229" t="s">
+      <c r="AB229" s="8" t="s">
+        <v>692</v>
+      </c>
+      <c r="AD229" s="8" t="s">
         <v>698</v>
       </c>
-      <c r="AH229" t="s">
+      <c r="AH229" s="8" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="230" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A230" t="s">
+    <row r="230" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A230" s="8" t="s">
         <v>49</v>
       </c>
       <c r="B230" t="s">
         <v>62</v>
       </c>
-      <c r="C230" t="s">
+      <c r="C230" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D230" t="s">
+      <c r="D230" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="F230" t="s">
+      <c r="E230"/>
+      <c r="F230" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="G230" t="s">
+      <c r="G230" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="H230" t="s">
+      <c r="H230" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="J230" t="s">
+      <c r="I230"/>
+      <c r="J230" s="8" t="s">
         <v>437</v>
       </c>
-      <c r="L230" t="s">
+      <c r="K230" s="9" t="s">
+        <v>806</v>
+      </c>
+      <c r="L230" s="8" t="s">
         <v>538</v>
       </c>
-      <c r="AB230" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="AH230" t="s">
+      <c r="AB230" s="8" t="s">
+        <v>692</v>
+      </c>
+      <c r="AH230" s="8" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="231" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A231" t="s">
+    <row r="231" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A231" s="8" t="s">
         <v>49</v>
       </c>
       <c r="B231" t="s">
         <v>62</v>
       </c>
-      <c r="C231" t="s">
+      <c r="C231" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D231" t="s">
+      <c r="D231" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="F231" t="s">
+      <c r="E231"/>
+      <c r="F231" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="G231" t="s">
+      <c r="G231" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="H231" t="s">
+      <c r="H231" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="J231" t="s">
+      <c r="I231"/>
+      <c r="J231" s="8" t="s">
         <v>437</v>
       </c>
-      <c r="L231" t="s">
+      <c r="K231" s="9" t="s">
+        <v>806</v>
+      </c>
+      <c r="L231" s="8" t="s">
         <v>538</v>
       </c>
-      <c r="AB231" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="AH231" t="s">
+      <c r="AB231" s="8" t="s">
+        <v>692</v>
+      </c>
+      <c r="AH231" s="8" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="232" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A232" t="s">
+    <row r="232" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A232" s="8" t="s">
         <v>49</v>
       </c>
       <c r="B232" t="s">
         <v>62</v>
       </c>
-      <c r="C232" t="s">
+      <c r="C232" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D232" t="s">
+      <c r="D232" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="F232" t="s">
+      <c r="E232"/>
+      <c r="F232" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="G232" t="s">
+      <c r="G232" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="H232" t="s">
+      <c r="H232" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="J232" t="s">
+      <c r="I232"/>
+      <c r="J232" s="8" t="s">
         <v>437</v>
       </c>
-      <c r="L232" t="s">
+      <c r="K232" s="9" t="s">
+        <v>806</v>
+      </c>
+      <c r="L232" s="8" t="s">
         <v>538</v>
       </c>
-      <c r="AB232" s="3" t="s">
+      <c r="AB232" s="8" t="s">
         <v>693</v>
       </c>
-      <c r="AH232" t="s">
+      <c r="AH232" s="8" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="233" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A233" t="s">
+    <row r="233" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A233" s="8" t="s">
         <v>49</v>
       </c>
       <c r="B233" t="s">
         <v>62</v>
       </c>
-      <c r="C233" t="s">
+      <c r="C233" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D233" t="s">
+      <c r="D233" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="F233" t="s">
+      <c r="E233"/>
+      <c r="F233" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="G233" t="s">
+      <c r="G233" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="H233" t="s">
+      <c r="H233" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="J233" t="s">
+      <c r="I233"/>
+      <c r="J233" s="8" t="s">
         <v>437</v>
       </c>
-      <c r="L233" t="s">
+      <c r="K233" s="9" t="s">
+        <v>806</v>
+      </c>
+      <c r="L233" s="8" t="s">
         <v>538</v>
       </c>
-      <c r="AB233" s="3" t="s">
+      <c r="AB233" s="8" t="s">
         <v>694</v>
       </c>
-      <c r="AH233" t="s">
+      <c r="AH233" s="8" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="234" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>49</v>
       </c>
@@ -13058,7 +13263,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="235" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>49</v>
       </c>
@@ -13093,7 +13298,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="236" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>49</v>
       </c>
@@ -13128,7 +13333,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="237" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>49</v>
       </c>
@@ -13163,7 +13368,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="238" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>49</v>
       </c>
@@ -13198,7 +13403,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="239" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>49</v>
       </c>
@@ -13233,7 +13438,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="240" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>49</v>
       </c>
@@ -13268,7 +13473,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="241" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>49</v>
       </c>
@@ -13303,7 +13508,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="242" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>49</v>
       </c>
@@ -13338,7 +13543,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="243" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>49</v>
       </c>
@@ -13373,7 +13578,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="244" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>49</v>
       </c>
@@ -13408,7 +13613,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="245" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>49</v>
       </c>
@@ -13443,7 +13648,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="246" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>49</v>
       </c>
@@ -13478,7 +13683,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="247" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>49</v>
       </c>
@@ -13522,7 +13727,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="248" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>49</v>
       </c>
@@ -13566,7 +13771,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="249" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>49</v>
       </c>
@@ -13610,7 +13815,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="250" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>49</v>
       </c>
@@ -13654,7 +13859,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="251" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>49</v>
       </c>
@@ -13698,7 +13903,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="252" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>49</v>
       </c>
@@ -13742,7 +13947,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="253" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>49</v>
       </c>
@@ -13786,7 +13991,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="254" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>49</v>
       </c>
@@ -13830,7 +14035,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="255" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>49</v>
       </c>
@@ -13874,7 +14079,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="256" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>49</v>
       </c>
@@ -13918,7 +14123,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="257" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>49</v>
       </c>
@@ -13962,7 +14167,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="258" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>49</v>
       </c>
@@ -14006,7 +14211,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="259" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>49</v>
       </c>
@@ -14050,7 +14255,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="260" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>49</v>
       </c>
@@ -14094,7 +14299,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="261" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>49</v>
       </c>
@@ -14138,7 +14343,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="262" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>49</v>
       </c>
@@ -14182,7 +14387,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="263" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>49</v>
       </c>
@@ -14226,7 +14431,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="264" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>49</v>
       </c>
@@ -14270,7 +14475,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="265" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>49</v>
       </c>
@@ -14314,7 +14519,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="266" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>49</v>
       </c>
@@ -14355,7 +14560,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="267" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>49</v>
       </c>
@@ -14396,7 +14601,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="268" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>49</v>
       </c>
@@ -14437,7 +14642,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="269" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>49</v>
       </c>
@@ -14481,7 +14686,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="270" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>49</v>
       </c>
@@ -14522,7 +14727,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="271" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>49</v>
       </c>
@@ -14563,7 +14768,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="272" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>49</v>
       </c>
@@ -14604,7 +14809,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="273" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>49</v>
       </c>
@@ -14645,7 +14850,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="274" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>49</v>
       </c>
@@ -14686,7 +14891,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="275" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>49</v>
       </c>
@@ -14727,7 +14932,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="276" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>49</v>
       </c>
@@ -14768,7 +14973,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="277" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>49</v>
       </c>
@@ -14809,7 +15014,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="278" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>49</v>
       </c>
@@ -14850,7 +15055,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="279" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>49</v>
       </c>
@@ -14891,7 +15096,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="280" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>49</v>
       </c>
@@ -14932,7 +15137,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="281" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>49</v>
       </c>
@@ -14973,7 +15178,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="282" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>49</v>
       </c>
@@ -15011,7 +15216,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="283" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>49</v>
       </c>
@@ -15049,7 +15254,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="284" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>49</v>
       </c>
@@ -15606,7 +15811,7 @@
   <autoFilter ref="A1:AJ296">
     <filterColumn colId="0">
       <filters>
-        <filter val="8"/>
+        <filter val="16"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/SDG-Matrix/Output/series_catalog.xlsx
+++ b/SDG-Matrix/Output/series_catalog.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4019" uniqueCount="807">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4025" uniqueCount="809">
   <si>
     <t>GOAL</t>
   </si>
@@ -2529,6 +2529,12 @@
   </si>
   <si>
     <t>VC_IHR_PSRCN</t>
+  </si>
+  <si>
+    <t>VC_VAW_PHYPYV</t>
+  </si>
+  <si>
+    <t>VC_PRS_UNSEC</t>
   </si>
 </sst>
 </file>
@@ -2618,7 +2624,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2629,7 +2635,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2971,12 +2976,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AJ296"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A273" zoomScale="93" workbookViewId="0">
       <pane xSplit="11" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J234" sqref="J234"/>
+      <selection pane="topRight" activeCell="A11" sqref="A11:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2991,7 +2995,7 @@
     <col min="8" max="8" width="16.81640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20" customWidth="1"/>
+    <col min="11" max="11" width="16.90625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20.54296875" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="23.7265625" bestFit="1" customWidth="1"/>
     <col min="15" max="18" width="16.54296875" bestFit="1" customWidth="1"/>
@@ -3120,7 +3124,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -3158,7 +3162,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="3" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -3196,7 +3200,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="4" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -3234,7 +3238,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="5" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -3278,7 +3282,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="6" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -3322,7 +3326,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="7" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -3366,90 +3370,86 @@
         <v>707</v>
       </c>
     </row>
-    <row r="8" spans="1:36" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B8"/>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E8"/>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J8" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="8" t="s">
         <v>739</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="L8" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="AB8" s="5" t="s">
-        <v>692</v>
-      </c>
-      <c r="AH8" s="5" t="s">
+      <c r="AB8" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="AH8" s="7" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="9" spans="1:36" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B9"/>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E9"/>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="8" t="s">
         <v>739</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="L9" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="O9" s="5" t="s">
+      <c r="O9" s="7" t="s">
         <v>640</v>
       </c>
-      <c r="AB9" s="5" t="s">
-        <v>692</v>
-      </c>
-      <c r="AH9" s="5" t="s">
+      <c r="AB9" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="AH9" s="7" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="10" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -3487,97 +3487,92 @@
         <v>706</v>
       </c>
     </row>
-    <row r="11" spans="1:36" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B11"/>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="E11"/>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="K11" s="8" t="s">
         <v>742</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="L11" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="M11" s="5" t="s">
+      <c r="M11" s="7" t="s">
         <v>570</v>
       </c>
-      <c r="N11" s="5" t="s">
+      <c r="N11" s="7" t="s">
         <v>603</v>
       </c>
-      <c r="AB11" s="5" t="s">
-        <v>692</v>
-      </c>
-      <c r="AH11" s="5" t="s">
+      <c r="AB11" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="AH11" s="7" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="12" spans="1:36" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B12"/>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="E12"/>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="I12"/>
-      <c r="J12" s="5" t="s">
+      <c r="J12" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="K12" s="8" t="s">
         <v>742</v>
       </c>
-      <c r="L12" s="5" t="s">
+      <c r="L12" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="M12" s="5" t="s">
+      <c r="M12" s="7" t="s">
         <v>570</v>
       </c>
-      <c r="N12" s="5" t="s">
+      <c r="N12" s="7" t="s">
         <v>603</v>
       </c>
-      <c r="AB12" s="5" t="s">
-        <v>692</v>
-      </c>
-      <c r="AH12" s="5" t="s">
+      <c r="AB12" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="AH12" s="7" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="13" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -3618,7 +3613,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="14" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -3665,7 +3660,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="15" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -3712,7 +3707,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="16" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -3759,7 +3754,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="17" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -3806,7 +3801,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="18" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -3853,7 +3848,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="19" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -3900,7 +3895,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="20" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -3947,7 +3942,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="21" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -3994,7 +3989,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="22" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -4041,7 +4036,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="23" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -4079,7 +4074,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="24" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -4117,7 +4112,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="25" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -4155,7 +4150,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="26" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -4193,7 +4188,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="27" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -4231,7 +4226,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="28" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -4269,7 +4264,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="29" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -4307,7 +4302,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="30" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -4345,7 +4340,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="31" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -4383,7 +4378,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="32" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -4421,7 +4416,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="33" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -4459,7 +4454,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="34" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -4497,7 +4492,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="35" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -4535,7 +4530,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="36" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -4573,7 +4568,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="37" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -4614,7 +4609,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="38" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -4652,7 +4647,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="39" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -4690,7 +4685,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="40" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -4728,7 +4723,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="41" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -4766,7 +4761,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="42" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>38</v>
       </c>
@@ -4804,7 +4799,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="43" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>38</v>
       </c>
@@ -4842,7 +4837,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="44" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>38</v>
       </c>
@@ -4880,7 +4875,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="45" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>38</v>
       </c>
@@ -4918,7 +4913,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="46" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>38</v>
       </c>
@@ -4956,7 +4951,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="47" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>38</v>
       </c>
@@ -4997,7 +4992,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="48" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>38</v>
       </c>
@@ -5038,7 +5033,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="49" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>38</v>
       </c>
@@ -5079,7 +5074,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="50" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>38</v>
       </c>
@@ -5123,7 +5118,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="51" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>38</v>
       </c>
@@ -5167,7 +5162,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="52" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>38</v>
       </c>
@@ -5211,7 +5206,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="53" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>38</v>
       </c>
@@ -5255,7 +5250,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="54" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>38</v>
       </c>
@@ -5299,7 +5294,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="55" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>38</v>
       </c>
@@ -5343,7 +5338,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="56" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>38</v>
       </c>
@@ -5387,7 +5382,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="57" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>38</v>
       </c>
@@ -5431,7 +5426,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="58" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>38</v>
       </c>
@@ -5475,7 +5470,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="59" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>38</v>
       </c>
@@ -5519,7 +5514,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="60" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>38</v>
       </c>
@@ -5563,7 +5558,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="61" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>38</v>
       </c>
@@ -5607,7 +5602,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="62" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>38</v>
       </c>
@@ -5648,7 +5643,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="63" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>38</v>
       </c>
@@ -5689,7 +5684,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="64" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>38</v>
       </c>
@@ -5730,7 +5725,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="65" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>38</v>
       </c>
@@ -5771,7 +5766,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="66" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>38</v>
       </c>
@@ -5812,7 +5807,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="67" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>38</v>
       </c>
@@ -5853,7 +5848,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="68" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>38</v>
       </c>
@@ -5894,7 +5889,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="69" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>38</v>
       </c>
@@ -5935,7 +5930,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="70" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>38</v>
       </c>
@@ -5976,7 +5971,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="71" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>38</v>
       </c>
@@ -6017,7 +6012,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="72" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>38</v>
       </c>
@@ -6058,7 +6053,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="73" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>38</v>
       </c>
@@ -6099,7 +6094,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="74" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>38</v>
       </c>
@@ -6140,7 +6135,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="75" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>38</v>
       </c>
@@ -6181,7 +6176,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="76" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>38</v>
       </c>
@@ -6222,7 +6217,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="77" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>38</v>
       </c>
@@ -6263,7 +6258,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="78" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>38</v>
       </c>
@@ -6307,7 +6302,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="79" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>38</v>
       </c>
@@ -6351,7 +6346,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="80" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>38</v>
       </c>
@@ -6395,7 +6390,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="81" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>38</v>
       </c>
@@ -6439,7 +6434,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="82" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>38</v>
       </c>
@@ -6483,7 +6478,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="83" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>38</v>
       </c>
@@ -6527,7 +6522,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="84" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>38</v>
       </c>
@@ -6571,7 +6566,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="85" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>38</v>
       </c>
@@ -6615,7 +6610,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="86" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>38</v>
       </c>
@@ -6659,7 +6654,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="87" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>38</v>
       </c>
@@ -6703,7 +6698,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="88" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>38</v>
       </c>
@@ -6747,7 +6742,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="89" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>38</v>
       </c>
@@ -6791,7 +6786,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="90" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>39</v>
       </c>
@@ -6838,7 +6833,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="91" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>39</v>
       </c>
@@ -6885,7 +6880,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="92" spans="1:34" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="5" t="s">
         <v>39</v>
       </c>
@@ -6931,7 +6926,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="93" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>39</v>
       </c>
@@ -6975,7 +6970,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="94" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>39</v>
       </c>
@@ -7019,7 +7014,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="95" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>39</v>
       </c>
@@ -7063,7 +7058,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="96" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>39</v>
       </c>
@@ -7107,7 +7102,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="97" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>39</v>
       </c>
@@ -7151,7 +7146,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="98" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>39</v>
       </c>
@@ -7195,7 +7190,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="99" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>39</v>
       </c>
@@ -7239,7 +7234,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="100" spans="1:36" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" s="5" t="s">
         <v>39</v>
       </c>
@@ -7283,7 +7278,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="101" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>39</v>
       </c>
@@ -7302,7 +7297,7 @@
       <c r="J101" t="s">
         <v>401</v>
       </c>
-      <c r="K101" s="7" t="s">
+      <c r="K101" s="6" t="s">
         <v>771</v>
       </c>
       <c r="L101" t="s">
@@ -7324,7 +7319,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="102" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>39</v>
       </c>
@@ -7346,7 +7341,7 @@
       <c r="J102" t="s">
         <v>402</v>
       </c>
-      <c r="K102" s="7" t="s">
+      <c r="K102" s="6" t="s">
         <v>772</v>
       </c>
       <c r="L102" t="s">
@@ -7365,7 +7360,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="103" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>39</v>
       </c>
@@ -7387,7 +7382,7 @@
       <c r="J103" t="s">
         <v>402</v>
       </c>
-      <c r="K103" s="7" t="s">
+      <c r="K103" s="6" t="s">
         <v>772</v>
       </c>
       <c r="L103" t="s">
@@ -7406,7 +7401,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="104" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>39</v>
       </c>
@@ -7428,7 +7423,7 @@
       <c r="J104" t="s">
         <v>402</v>
       </c>
-      <c r="K104" s="7" t="s">
+      <c r="K104" s="6" t="s">
         <v>772</v>
       </c>
       <c r="L104" t="s">
@@ -7447,7 +7442,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="105" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>40</v>
       </c>
@@ -7491,7 +7486,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="106" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>40</v>
       </c>
@@ -7535,7 +7530,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="107" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>40</v>
       </c>
@@ -7579,7 +7574,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="108" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>40</v>
       </c>
@@ -7623,7 +7618,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="109" spans="1:36" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A109" s="5" t="s">
         <v>40</v>
       </c>
@@ -7666,7 +7661,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="110" spans="1:36" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A110" s="5" t="s">
         <v>40</v>
       </c>
@@ -7712,7 +7707,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="111" spans="1:36" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A111" s="5" t="s">
         <v>40</v>
       </c>
@@ -7758,7 +7753,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="112" spans="1:36" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A112" s="5" t="s">
         <v>40</v>
       </c>
@@ -7804,7 +7799,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="113" spans="1:36" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A113" s="5" t="s">
         <v>40</v>
       </c>
@@ -7847,7 +7842,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="114" spans="1:36" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A114" s="5" t="s">
         <v>40</v>
       </c>
@@ -7893,7 +7888,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="115" spans="1:36" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A115" s="5" t="s">
         <v>40</v>
       </c>
@@ -7939,7 +7934,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="116" spans="1:36" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A116" s="5" t="s">
         <v>40</v>
       </c>
@@ -7985,7 +7980,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="117" spans="1:36" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A117" s="5" t="s">
         <v>40</v>
       </c>
@@ -8031,7 +8026,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="118" spans="1:36" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A118" s="5" t="s">
         <v>40</v>
       </c>
@@ -8077,7 +8072,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="119" spans="1:36" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A119" s="5" t="s">
         <v>40</v>
       </c>
@@ -8123,7 +8118,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="120" spans="1:36" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A120" s="5" t="s">
         <v>40</v>
       </c>
@@ -8169,7 +8164,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="121" spans="1:36" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A121" s="5" t="s">
         <v>40</v>
       </c>
@@ -8215,7 +8210,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="122" spans="1:36" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A122" s="5" t="s">
         <v>40</v>
       </c>
@@ -8261,7 +8256,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="123" spans="1:36" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A123" s="5" t="s">
         <v>40</v>
       </c>
@@ -8307,7 +8302,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="124" spans="1:36" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A124" s="5" t="s">
         <v>40</v>
       </c>
@@ -8353,7 +8348,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="125" spans="1:36" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A125" s="5" t="s">
         <v>40</v>
       </c>
@@ -8399,7 +8394,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="126" spans="1:36" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A126" s="5" t="s">
         <v>40</v>
       </c>
@@ -8445,7 +8440,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="127" spans="1:36" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A127" s="5" t="s">
         <v>40</v>
       </c>
@@ -8491,7 +8486,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="128" spans="1:36" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A128" s="5" t="s">
         <v>40</v>
       </c>
@@ -8537,7 +8532,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="129" spans="1:36" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A129" s="5" t="s">
         <v>40</v>
       </c>
@@ -8583,7 +8578,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="130" spans="1:36" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A130" s="5" t="s">
         <v>40</v>
       </c>
@@ -8629,7 +8624,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="131" spans="1:36" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A131" s="5" t="s">
         <v>40</v>
       </c>
@@ -8675,7 +8670,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="132" spans="1:36" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A132" s="5" t="s">
         <v>40</v>
       </c>
@@ -8721,7 +8716,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="133" spans="1:36" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A133" s="5" t="s">
         <v>40</v>
       </c>
@@ -8767,7 +8762,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="134" spans="1:36" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A134" s="5" t="s">
         <v>40</v>
       </c>
@@ -8813,7 +8808,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="135" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>41</v>
       </c>
@@ -8857,7 +8852,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="136" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>41</v>
       </c>
@@ -8901,7 +8896,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="137" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>41</v>
       </c>
@@ -8945,7 +8940,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="138" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>41</v>
       </c>
@@ -8989,7 +8984,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="139" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>41</v>
       </c>
@@ -9033,7 +9028,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="140" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>42</v>
       </c>
@@ -9077,7 +9072,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="141" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>42</v>
       </c>
@@ -9124,7 +9119,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="142" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>42</v>
       </c>
@@ -9149,7 +9144,7 @@
       <c r="J142" t="s">
         <v>408</v>
       </c>
-      <c r="K142" s="7" t="s">
+      <c r="K142" s="6" t="s">
         <v>780</v>
       </c>
       <c r="L142" t="s">
@@ -9171,7 +9166,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="143" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>42</v>
       </c>
@@ -9215,7 +9210,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="144" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>42</v>
       </c>
@@ -9259,7 +9254,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="145" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>42</v>
       </c>
@@ -9303,7 +9298,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="146" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>42</v>
       </c>
@@ -9347,7 +9342,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="147" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>42</v>
       </c>
@@ -9394,7 +9389,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="148" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>42</v>
       </c>
@@ -9438,7 +9433,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="149" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>42</v>
       </c>
@@ -9482,7 +9477,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="150" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>42</v>
       </c>
@@ -9526,7 +9521,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="151" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>42</v>
       </c>
@@ -9573,7 +9568,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="152" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>42</v>
       </c>
@@ -9620,7 +9615,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="153" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>42</v>
       </c>
@@ -9667,7 +9662,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="154" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>42</v>
       </c>
@@ -9714,7 +9709,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="155" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>42</v>
       </c>
@@ -9761,7 +9756,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="156" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>42</v>
       </c>
@@ -9808,7 +9803,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="157" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>42</v>
       </c>
@@ -9855,7 +9850,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="158" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>42</v>
       </c>
@@ -9902,7 +9897,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="159" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>42</v>
       </c>
@@ -9949,7 +9944,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="160" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>42</v>
       </c>
@@ -9996,7 +9991,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="161" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>42</v>
       </c>
@@ -10043,7 +10038,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="162" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>42</v>
       </c>
@@ -10090,7 +10085,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="163" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>42</v>
       </c>
@@ -10137,7 +10132,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="164" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>42</v>
       </c>
@@ -10184,7 +10179,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="165" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>42</v>
       </c>
@@ -10228,7 +10223,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="166" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>42</v>
       </c>
@@ -10272,7 +10267,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="167" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>42</v>
       </c>
@@ -10297,7 +10292,7 @@
       <c r="J167" t="s">
         <v>412</v>
       </c>
-      <c r="K167" s="7" t="s">
+      <c r="K167" s="6" t="s">
         <v>785</v>
       </c>
       <c r="L167" t="s">
@@ -10316,7 +10311,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="168" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>42</v>
       </c>
@@ -10341,7 +10336,7 @@
       <c r="J168" t="s">
         <v>412</v>
       </c>
-      <c r="K168" s="7" t="s">
+      <c r="K168" s="6" t="s">
         <v>785</v>
       </c>
       <c r="L168" t="s">
@@ -10360,7 +10355,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="169" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>42</v>
       </c>
@@ -10385,7 +10380,7 @@
       <c r="J169" t="s">
         <v>412</v>
       </c>
-      <c r="K169" s="7" t="s">
+      <c r="K169" s="6" t="s">
         <v>785</v>
       </c>
       <c r="L169" t="s">
@@ -10404,7 +10399,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="170" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>42</v>
       </c>
@@ -10429,7 +10424,7 @@
       <c r="J170" t="s">
         <v>412</v>
       </c>
-      <c r="K170" s="7" t="s">
+      <c r="K170" s="6" t="s">
         <v>785</v>
       </c>
       <c r="L170" t="s">
@@ -10448,7 +10443,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="171" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>42</v>
       </c>
@@ -10473,7 +10468,7 @@
       <c r="J171" t="s">
         <v>412</v>
       </c>
-      <c r="K171" s="7" t="s">
+      <c r="K171" s="6" t="s">
         <v>785</v>
       </c>
       <c r="L171" t="s">
@@ -10492,7 +10487,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="172" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>42</v>
       </c>
@@ -10517,7 +10512,7 @@
       <c r="J172" t="s">
         <v>412</v>
       </c>
-      <c r="K172" s="7" t="s">
+      <c r="K172" s="6" t="s">
         <v>785</v>
       </c>
       <c r="L172" t="s">
@@ -10536,7 +10531,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="173" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>42</v>
       </c>
@@ -10561,7 +10556,7 @@
       <c r="J173" t="s">
         <v>412</v>
       </c>
-      <c r="K173" s="7" t="s">
+      <c r="K173" s="6" t="s">
         <v>785</v>
       </c>
       <c r="L173" t="s">
@@ -10580,7 +10575,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="174" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>42</v>
       </c>
@@ -10605,7 +10600,7 @@
       <c r="J174" t="s">
         <v>412</v>
       </c>
-      <c r="K174" s="7" t="s">
+      <c r="K174" s="6" t="s">
         <v>785</v>
       </c>
       <c r="L174" t="s">
@@ -10624,7 +10619,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="175" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>42</v>
       </c>
@@ -10649,7 +10644,7 @@
       <c r="J175" t="s">
         <v>412</v>
       </c>
-      <c r="K175" s="7" t="s">
+      <c r="K175" s="6" t="s">
         <v>785</v>
       </c>
       <c r="L175" t="s">
@@ -10668,7 +10663,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="176" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>42</v>
       </c>
@@ -10693,7 +10688,7 @@
       <c r="J176" t="s">
         <v>412</v>
       </c>
-      <c r="K176" s="7" t="s">
+      <c r="K176" s="6" t="s">
         <v>785</v>
       </c>
       <c r="L176" t="s">
@@ -10712,7 +10707,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="177" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>42</v>
       </c>
@@ -10737,7 +10732,7 @@
       <c r="J177" t="s">
         <v>412</v>
       </c>
-      <c r="K177" s="7" t="s">
+      <c r="K177" s="6" t="s">
         <v>785</v>
       </c>
       <c r="L177" t="s">
@@ -10756,7 +10751,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="178" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>42</v>
       </c>
@@ -10781,7 +10776,7 @@
       <c r="J178" t="s">
         <v>412</v>
       </c>
-      <c r="K178" s="7" t="s">
+      <c r="K178" s="6" t="s">
         <v>785</v>
       </c>
       <c r="L178" t="s">
@@ -10800,7 +10795,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="179" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>42</v>
       </c>
@@ -10825,7 +10820,7 @@
       <c r="J179" t="s">
         <v>412</v>
       </c>
-      <c r="K179" s="7" t="s">
+      <c r="K179" s="6" t="s">
         <v>785</v>
       </c>
       <c r="L179" t="s">
@@ -10844,7 +10839,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="180" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>42</v>
       </c>
@@ -10869,7 +10864,7 @@
       <c r="J180" t="s">
         <v>412</v>
       </c>
-      <c r="K180" s="7" t="s">
+      <c r="K180" s="6" t="s">
         <v>785</v>
       </c>
       <c r="L180" t="s">
@@ -10888,7 +10883,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="181" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>42</v>
       </c>
@@ -10913,7 +10908,7 @@
       <c r="J181" t="s">
         <v>412</v>
       </c>
-      <c r="K181" s="7" t="s">
+      <c r="K181" s="6" t="s">
         <v>785</v>
       </c>
       <c r="L181" t="s">
@@ -10932,7 +10927,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="182" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>42</v>
       </c>
@@ -10957,7 +10952,7 @@
       <c r="J182" t="s">
         <v>412</v>
       </c>
-      <c r="K182" s="7" t="s">
+      <c r="K182" s="6" t="s">
         <v>785</v>
       </c>
       <c r="L182" t="s">
@@ -10976,7 +10971,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="183" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>42</v>
       </c>
@@ -11020,7 +11015,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="184" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>42</v>
       </c>
@@ -11064,7 +11059,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="185" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>42</v>
       </c>
@@ -11108,7 +11103,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="186" spans="1:34" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A186" s="5" t="s">
         <v>42</v>
       </c>
@@ -11151,7 +11146,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="187" spans="1:34" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A187" s="5" t="s">
         <v>42</v>
       </c>
@@ -11197,7 +11192,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="188" spans="1:34" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A188" s="5" t="s">
         <v>42</v>
       </c>
@@ -11243,7 +11238,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="189" spans="1:34" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A189" s="5" t="s">
         <v>42</v>
       </c>
@@ -11289,7 +11284,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="190" spans="1:34" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A190" s="5" t="s">
         <v>42</v>
       </c>
@@ -11332,7 +11327,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="191" spans="1:34" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A191" s="5" t="s">
         <v>42</v>
       </c>
@@ -11375,194 +11370,194 @@
         <v>714</v>
       </c>
     </row>
-    <row r="192" spans="1:34" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A192" s="8" t="s">
+    <row r="192" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A192" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B192" t="s">
         <v>55</v>
       </c>
-      <c r="C192" s="8" t="s">
+      <c r="C192" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D192" s="8" t="s">
+      <c r="D192" s="5" t="s">
         <v>109</v>
       </c>
       <c r="E192"/>
-      <c r="F192" s="8" t="s">
+      <c r="F192" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="G192" s="8" t="s">
+      <c r="G192" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="H192" s="8" t="s">
+      <c r="H192" s="5" t="s">
         <v>327</v>
       </c>
       <c r="I192"/>
-      <c r="J192" s="8" t="s">
+      <c r="J192" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="L192" s="8" t="s">
+      <c r="L192" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="R192" s="8" t="s">
+      <c r="R192" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="AB192" s="8" t="s">
-        <v>692</v>
-      </c>
-      <c r="AD192" s="8" t="s">
+      <c r="AB192" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="AD192" s="5" t="s">
         <v>698</v>
       </c>
-      <c r="AH192" s="8" t="s">
+      <c r="AH192" s="5" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="193" spans="1:36" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A193" s="8" t="s">
+    <row r="193" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A193" s="7" t="s">
         <v>42</v>
       </c>
       <c r="B193" t="s">
         <v>55</v>
       </c>
-      <c r="C193" s="8" t="s">
+      <c r="C193" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D193" s="8" t="s">
+      <c r="D193" s="7" t="s">
         <v>110</v>
       </c>
       <c r="E193"/>
-      <c r="F193" s="8" t="s">
+      <c r="F193" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="G193" s="8" t="s">
+      <c r="G193" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="H193" s="8" t="s">
+      <c r="H193" s="7" t="s">
         <v>328</v>
       </c>
       <c r="I193"/>
-      <c r="J193" s="8" t="s">
+      <c r="J193" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="K193" s="8" t="s">
+      <c r="K193" s="7" t="s">
         <v>787</v>
       </c>
-      <c r="L193" s="8" t="s">
+      <c r="L193" s="7" t="s">
         <v>509</v>
       </c>
-      <c r="N193" s="8" t="s">
+      <c r="N193" s="7" t="s">
         <v>618</v>
       </c>
-      <c r="R193" s="8" t="s">
+      <c r="R193" s="7" t="s">
         <v>653</v>
       </c>
-      <c r="AB193" s="8" t="s">
-        <v>692</v>
-      </c>
-      <c r="AD193" s="8" t="s">
+      <c r="AB193" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="AD193" s="7" t="s">
         <v>698</v>
       </c>
-      <c r="AH193" s="8" t="s">
+      <c r="AH193" s="7" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="194" spans="1:36" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A194" s="8" t="s">
+    <row r="194" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A194" s="7" t="s">
         <v>42</v>
       </c>
       <c r="B194" t="s">
         <v>55</v>
       </c>
-      <c r="C194" s="8" t="s">
+      <c r="C194" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D194" s="8" t="s">
+      <c r="D194" s="7" t="s">
         <v>110</v>
       </c>
       <c r="E194"/>
-      <c r="F194" s="8" t="s">
+      <c r="F194" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="G194" s="8" t="s">
+      <c r="G194" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="H194" s="8" t="s">
+      <c r="H194" s="7" t="s">
         <v>328</v>
       </c>
       <c r="I194"/>
-      <c r="J194" s="8" t="s">
+      <c r="J194" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="K194" s="8" t="s">
+      <c r="K194" s="7" t="s">
         <v>787</v>
       </c>
-      <c r="L194" s="8" t="s">
+      <c r="L194" s="7" t="s">
         <v>509</v>
       </c>
-      <c r="N194" s="8" t="s">
+      <c r="N194" s="7" t="s">
         <v>618</v>
       </c>
-      <c r="AB194" s="8" t="s">
-        <v>692</v>
-      </c>
-      <c r="AD194" s="8" t="s">
+      <c r="AB194" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="AD194" s="7" t="s">
         <v>698</v>
       </c>
-      <c r="AH194" s="8" t="s">
+      <c r="AH194" s="7" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="195" spans="1:36" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A195" s="8" t="s">
+    <row r="195" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A195" s="7" t="s">
         <v>42</v>
       </c>
       <c r="B195" t="s">
         <v>55</v>
       </c>
-      <c r="C195" s="8" t="s">
+      <c r="C195" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D195" s="8" t="s">
+      <c r="D195" s="7" t="s">
         <v>110</v>
       </c>
       <c r="E195"/>
-      <c r="F195" s="8" t="s">
+      <c r="F195" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="G195" s="8" t="s">
+      <c r="G195" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="H195" s="8" t="s">
+      <c r="H195" s="7" t="s">
         <v>328</v>
       </c>
       <c r="I195"/>
-      <c r="J195" s="8" t="s">
+      <c r="J195" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="K195" s="8" t="s">
+      <c r="K195" s="7" t="s">
         <v>788</v>
       </c>
-      <c r="L195" s="8" t="s">
+      <c r="L195" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="N195" s="8" t="s">
+      <c r="N195" s="7" t="s">
         <v>619</v>
       </c>
-      <c r="R195" s="8" t="s">
+      <c r="R195" s="7" t="s">
         <v>653</v>
       </c>
-      <c r="AB195" s="8" t="s">
-        <v>692</v>
-      </c>
-      <c r="AD195" s="8" t="s">
+      <c r="AB195" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="AD195" s="7" t="s">
         <v>698</v>
       </c>
-      <c r="AH195" s="8" t="s">
+      <c r="AH195" s="7" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="196" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>43</v>
       </c>
@@ -11609,7 +11604,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="197" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>43</v>
       </c>
@@ -11656,7 +11651,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="198" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>43</v>
       </c>
@@ -11703,7 +11698,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="199" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>43</v>
       </c>
@@ -11747,7 +11742,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="200" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>43</v>
       </c>
@@ -11791,7 +11786,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="201" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>43</v>
       </c>
@@ -11835,7 +11830,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="202" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>43</v>
       </c>
@@ -11879,7 +11874,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="203" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>43</v>
       </c>
@@ -11923,7 +11918,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="204" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>43</v>
       </c>
@@ -11948,7 +11943,7 @@
       <c r="J204" t="s">
         <v>421</v>
       </c>
-      <c r="K204" s="7" t="s">
+      <c r="K204" s="6" t="s">
         <v>793</v>
       </c>
       <c r="L204" t="s">
@@ -11967,7 +11962,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="205" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>43</v>
       </c>
@@ -12011,7 +12006,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="206" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>43</v>
       </c>
@@ -12055,7 +12050,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="207" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>43</v>
       </c>
@@ -12099,50 +12094,50 @@
         <v>714</v>
       </c>
     </row>
-    <row r="208" spans="1:36" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A208" s="8" t="s">
+    <row r="208" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A208" s="7" t="s">
         <v>44</v>
       </c>
       <c r="B208" t="s">
         <v>57</v>
       </c>
-      <c r="C208" s="8" t="s">
+      <c r="C208" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D208" s="8" t="s">
+      <c r="D208" s="7" t="s">
         <v>117</v>
       </c>
       <c r="E208"/>
-      <c r="F208" s="8" t="s">
+      <c r="F208" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="G208" s="8" t="s">
+      <c r="G208" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="H208" s="8" t="s">
+      <c r="H208" s="7" t="s">
         <v>336</v>
       </c>
       <c r="I208"/>
-      <c r="J208" s="8" t="s">
+      <c r="J208" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="K208" s="9" t="s">
+      <c r="K208" s="8" t="s">
         <v>797</v>
       </c>
-      <c r="L208" s="8" t="s">
+      <c r="L208" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="AB208" s="8" t="s">
-        <v>692</v>
-      </c>
-      <c r="AC208" s="8" t="s">
+      <c r="AB208" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="AC208" s="7" t="s">
         <v>698</v>
       </c>
-      <c r="AH208" s="8" t="s">
+      <c r="AH208" s="7" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="209" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>44</v>
       </c>
@@ -12183,7 +12178,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="210" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>45</v>
       </c>
@@ -12227,7 +12222,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="211" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>45</v>
       </c>
@@ -12271,7 +12266,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="212" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>45</v>
       </c>
@@ -12315,7 +12310,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="213" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>45</v>
       </c>
@@ -12359,53 +12354,53 @@
         <v>714</v>
       </c>
     </row>
-    <row r="214" spans="1:36" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A214" s="8" t="s">
+    <row r="214" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A214" s="7" t="s">
         <v>46</v>
       </c>
       <c r="B214" t="s">
         <v>59</v>
       </c>
-      <c r="C214" s="8" t="s">
+      <c r="C214" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D214" s="8" t="s">
+      <c r="D214" s="7" t="s">
         <v>121</v>
       </c>
       <c r="E214"/>
-      <c r="F214" s="8" t="s">
+      <c r="F214" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="G214" s="8" t="s">
+      <c r="G214" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="H214" s="8" t="s">
+      <c r="H214" s="7" t="s">
         <v>338</v>
       </c>
       <c r="I214"/>
-      <c r="J214" s="8" t="s">
+      <c r="J214" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="K214" s="9" t="s">
+      <c r="K214" s="8" t="s">
         <v>799</v>
       </c>
-      <c r="L214" s="8" t="s">
+      <c r="L214" s="7" t="s">
         <v>525</v>
       </c>
-      <c r="AB214" s="8" t="s">
-        <v>692</v>
-      </c>
-      <c r="AD214" s="8" t="s">
+      <c r="AB214" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="AD214" s="7" t="s">
         <v>698</v>
       </c>
-      <c r="AH214" s="8" t="s">
+      <c r="AH214" s="7" t="s">
         <v>720</v>
       </c>
-      <c r="AJ214" s="8" t="s">
+      <c r="AJ214" s="7" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="215" spans="1:36" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A215" s="5" t="s">
         <v>46</v>
       </c>
@@ -12448,7 +12443,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="216" spans="1:36" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A216" s="5" t="s">
         <v>46</v>
       </c>
@@ -12491,252 +12486,252 @@
         <v>733</v>
       </c>
     </row>
-    <row r="217" spans="1:36" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A217" s="8" t="s">
+    <row r="217" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A217" s="7" t="s">
         <v>47</v>
       </c>
       <c r="B217" t="s">
         <v>60</v>
       </c>
-      <c r="C217" s="8" t="s">
+      <c r="C217" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D217" s="8" t="s">
+      <c r="D217" s="7" t="s">
         <v>123</v>
       </c>
       <c r="E217"/>
-      <c r="F217" s="8" t="s">
+      <c r="F217" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="G217" s="8" t="s">
+      <c r="G217" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="H217" s="8" t="s">
+      <c r="H217" s="7" t="s">
         <v>340</v>
       </c>
       <c r="I217"/>
-      <c r="J217" s="8" t="s">
+      <c r="J217" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="K217" s="9" t="s">
+      <c r="K217" s="8" t="s">
         <v>736</v>
       </c>
-      <c r="L217" s="8" t="s">
+      <c r="L217" s="7" t="s">
         <v>527</v>
       </c>
-      <c r="M217" s="8" t="s">
+      <c r="M217" s="7" t="s">
         <v>583</v>
       </c>
-      <c r="N217" s="8" t="s">
+      <c r="N217" s="7" t="s">
         <v>623</v>
       </c>
-      <c r="AB217" s="8" t="s">
-        <v>692</v>
-      </c>
-      <c r="AD217" s="8" t="s">
+      <c r="AB217" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="AD217" s="7" t="s">
         <v>698</v>
       </c>
-      <c r="AH217" s="8" t="s">
+      <c r="AH217" s="7" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="218" spans="1:36" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A218" s="8" t="s">
+    <row r="218" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A218" s="7" t="s">
         <v>47</v>
       </c>
       <c r="B218" t="s">
         <v>60</v>
       </c>
-      <c r="C218" s="8" t="s">
+      <c r="C218" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D218" s="8" t="s">
+      <c r="D218" s="7" t="s">
         <v>123</v>
       </c>
       <c r="E218"/>
-      <c r="F218" s="8" t="s">
+      <c r="F218" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="G218" s="8" t="s">
+      <c r="G218" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="H218" s="8" t="s">
+      <c r="H218" s="7" t="s">
         <v>340</v>
       </c>
       <c r="I218"/>
-      <c r="J218" s="8" t="s">
+      <c r="J218" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="K218" s="9" t="s">
+      <c r="K218" s="8" t="s">
         <v>736</v>
       </c>
-      <c r="L218" s="8" t="s">
+      <c r="L218" s="7" t="s">
         <v>528</v>
       </c>
-      <c r="M218" s="8" t="s">
+      <c r="M218" s="7" t="s">
         <v>583</v>
       </c>
-      <c r="N218" s="8" t="s">
+      <c r="N218" s="7" t="s">
         <v>623</v>
       </c>
-      <c r="AB218" s="8" t="s">
-        <v>692</v>
-      </c>
-      <c r="AD218" s="8" t="s">
+      <c r="AB218" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="AD218" s="7" t="s">
         <v>698</v>
       </c>
-      <c r="AH218" s="8" t="s">
+      <c r="AH218" s="7" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="219" spans="1:36" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A219" s="8" t="s">
+    <row r="219" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A219" s="7" t="s">
         <v>47</v>
       </c>
       <c r="B219" t="s">
         <v>60</v>
       </c>
-      <c r="C219" s="8" t="s">
+      <c r="C219" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D219" s="8" t="s">
+      <c r="D219" s="7" t="s">
         <v>123</v>
       </c>
       <c r="E219"/>
-      <c r="F219" s="8" t="s">
+      <c r="F219" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="G219" s="8" t="s">
+      <c r="G219" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="H219" s="8" t="s">
+      <c r="H219" s="7" t="s">
         <v>340</v>
       </c>
       <c r="I219"/>
-      <c r="J219" s="8" t="s">
+      <c r="J219" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="K219" s="9" t="s">
+      <c r="K219" s="8" t="s">
         <v>736</v>
       </c>
-      <c r="L219" s="8" t="s">
+      <c r="L219" s="7" t="s">
         <v>529</v>
       </c>
-      <c r="M219" s="8" t="s">
+      <c r="M219" s="7" t="s">
         <v>583</v>
       </c>
-      <c r="N219" s="8" t="s">
+      <c r="N219" s="7" t="s">
         <v>623</v>
       </c>
-      <c r="AB219" s="8" t="s">
-        <v>692</v>
-      </c>
-      <c r="AD219" s="8" t="s">
+      <c r="AB219" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="AD219" s="7" t="s">
         <v>698</v>
       </c>
-      <c r="AH219" s="8" t="s">
+      <c r="AH219" s="7" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="220" spans="1:36" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A220" s="8" t="s">
+    <row r="220" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A220" s="7" t="s">
         <v>47</v>
       </c>
       <c r="B220" t="s">
         <v>60</v>
       </c>
-      <c r="C220" s="8" t="s">
+      <c r="C220" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D220" s="8" t="s">
+      <c r="D220" s="7" t="s">
         <v>123</v>
       </c>
       <c r="E220"/>
-      <c r="F220" s="8" t="s">
+      <c r="F220" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="G220" s="8" t="s">
+      <c r="G220" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="H220" s="8" t="s">
+      <c r="H220" s="7" t="s">
         <v>340</v>
       </c>
       <c r="I220"/>
-      <c r="J220" s="8" t="s">
+      <c r="J220" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="K220" s="9" t="s">
+      <c r="K220" s="8" t="s">
         <v>737</v>
       </c>
-      <c r="L220" s="8" t="s">
+      <c r="L220" s="7" t="s">
         <v>530</v>
       </c>
-      <c r="M220" s="8" t="s">
+      <c r="M220" s="7" t="s">
         <v>584</v>
       </c>
-      <c r="N220" s="8" t="s">
+      <c r="N220" s="7" t="s">
         <v>624</v>
       </c>
-      <c r="AB220" s="8" t="s">
-        <v>692</v>
-      </c>
-      <c r="AD220" s="8" t="s">
+      <c r="AB220" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="AD220" s="7" t="s">
         <v>698</v>
       </c>
-      <c r="AH220" s="8" t="s">
+      <c r="AH220" s="7" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="221" spans="1:36" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A221" s="8" t="s">
+    <row r="221" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A221" s="7" t="s">
         <v>47</v>
       </c>
       <c r="B221" t="s">
         <v>60</v>
       </c>
-      <c r="C221" s="8" t="s">
+      <c r="C221" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D221" s="8" t="s">
+      <c r="D221" s="7" t="s">
         <v>123</v>
       </c>
       <c r="E221"/>
-      <c r="F221" s="8" t="s">
+      <c r="F221" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="G221" s="8" t="s">
+      <c r="G221" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="H221" s="8" t="s">
+      <c r="H221" s="7" t="s">
         <v>340</v>
       </c>
       <c r="I221"/>
-      <c r="J221" s="8" t="s">
+      <c r="J221" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="K221" s="9" t="s">
+      <c r="K221" s="8" t="s">
         <v>738</v>
       </c>
-      <c r="L221" s="8" t="s">
+      <c r="L221" s="7" t="s">
         <v>531</v>
       </c>
-      <c r="M221" s="8" t="s">
+      <c r="M221" s="7" t="s">
         <v>582</v>
       </c>
-      <c r="N221" s="8" t="s">
+      <c r="N221" s="7" t="s">
         <v>622</v>
       </c>
-      <c r="AB221" s="8" t="s">
-        <v>692</v>
-      </c>
-      <c r="AD221" s="8" t="s">
+      <c r="AB221" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="AD221" s="7" t="s">
         <v>698</v>
       </c>
-      <c r="AH221" s="8" t="s">
+      <c r="AH221" s="7" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="222" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>48</v>
       </c>
@@ -12777,7 +12772,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="223" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>48</v>
       </c>
@@ -12818,7 +12813,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="224" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>48</v>
       </c>
@@ -12859,7 +12854,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="225" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>48</v>
       </c>
@@ -12900,7 +12895,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="226" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>48</v>
       </c>
@@ -12941,7 +12936,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="227" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>48</v>
       </c>
@@ -12982,354 +12977,360 @@
         <v>714</v>
       </c>
     </row>
-    <row r="228" spans="1:34" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A228" s="8" t="s">
+    <row r="228" spans="1:34" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A228" s="7" t="s">
         <v>48</v>
       </c>
       <c r="B228" t="s">
         <v>61</v>
       </c>
-      <c r="C228" s="8" t="s">
+      <c r="C228" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D228" s="8" t="s">
+      <c r="D228" s="7" t="s">
         <v>127</v>
       </c>
       <c r="E228"/>
-      <c r="F228" s="8" t="s">
+      <c r="F228" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="G228" s="8" t="s">
+      <c r="G228" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="H228" s="8" t="s">
+      <c r="H228" s="7" t="s">
         <v>346</v>
       </c>
       <c r="I228"/>
-      <c r="J228" s="8" t="s">
+      <c r="J228" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="K228" s="9" t="s">
+      <c r="K228" s="8" t="s">
         <v>805</v>
       </c>
-      <c r="L228" s="8" t="s">
+      <c r="L228" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="AB228" s="8" t="s">
-        <v>692</v>
-      </c>
-      <c r="AD228" s="8" t="s">
+      <c r="AB228" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="AD228" s="7" t="s">
         <v>698</v>
       </c>
-      <c r="AH228" s="8" t="s">
+      <c r="AH228" s="7" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="229" spans="1:34" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A229" s="8" t="s">
+    <row r="229" spans="1:34" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A229" s="7" t="s">
         <v>48</v>
       </c>
       <c r="B229" t="s">
         <v>61</v>
       </c>
-      <c r="C229" s="8" t="s">
+      <c r="C229" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D229" s="8" t="s">
+      <c r="D229" s="7" t="s">
         <v>128</v>
       </c>
       <c r="E229"/>
-      <c r="F229" s="8" t="s">
+      <c r="F229" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="G229" s="8" t="s">
+      <c r="G229" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="H229" s="8" t="s">
+      <c r="H229" s="7" t="s">
         <v>346</v>
       </c>
       <c r="I229"/>
-      <c r="J229" s="8" t="s">
+      <c r="J229" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="K229" s="9" t="s">
+      <c r="K229" s="8" t="s">
         <v>805</v>
       </c>
-      <c r="L229" s="8" t="s">
+      <c r="L229" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="AB229" s="8" t="s">
-        <v>692</v>
-      </c>
-      <c r="AD229" s="8" t="s">
+      <c r="AB229" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="AD229" s="7" t="s">
         <v>698</v>
       </c>
-      <c r="AH229" s="8" t="s">
+      <c r="AH229" s="7" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="230" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A230" s="8" t="s">
+    <row r="230" spans="1:34" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A230" s="7" t="s">
         <v>49</v>
       </c>
       <c r="B230" t="s">
         <v>62</v>
       </c>
-      <c r="C230" s="8" t="s">
+      <c r="C230" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D230" s="8" t="s">
+      <c r="D230" s="7" t="s">
         <v>129</v>
       </c>
       <c r="E230"/>
-      <c r="F230" s="8" t="s">
+      <c r="F230" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="G230" s="8" t="s">
+      <c r="G230" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="H230" s="8" t="s">
+      <c r="H230" s="7" t="s">
         <v>347</v>
       </c>
       <c r="I230"/>
-      <c r="J230" s="8" t="s">
+      <c r="J230" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="K230" s="9" t="s">
+      <c r="K230" s="8" t="s">
         <v>806</v>
       </c>
-      <c r="L230" s="8" t="s">
+      <c r="L230" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="AB230" s="8" t="s">
-        <v>692</v>
-      </c>
-      <c r="AH230" s="8" t="s">
+      <c r="AB230" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="AH230" s="7" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="231" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A231" s="8" t="s">
+    <row r="231" spans="1:34" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A231" s="7" t="s">
         <v>49</v>
       </c>
       <c r="B231" t="s">
         <v>62</v>
       </c>
-      <c r="C231" s="8" t="s">
+      <c r="C231" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D231" s="8" t="s">
+      <c r="D231" s="7" t="s">
         <v>129</v>
       </c>
       <c r="E231"/>
-      <c r="F231" s="8" t="s">
+      <c r="F231" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="G231" s="8" t="s">
+      <c r="G231" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="H231" s="8" t="s">
+      <c r="H231" s="7" t="s">
         <v>347</v>
       </c>
       <c r="I231"/>
-      <c r="J231" s="8" t="s">
+      <c r="J231" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="K231" s="9" t="s">
+      <c r="K231" s="8" t="s">
         <v>806</v>
       </c>
-      <c r="L231" s="8" t="s">
+      <c r="L231" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="AB231" s="8" t="s">
-        <v>692</v>
-      </c>
-      <c r="AH231" s="8" t="s">
+      <c r="AB231" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="AH231" s="7" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="232" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A232" s="8" t="s">
+    <row r="232" spans="1:34" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A232" s="7" t="s">
         <v>49</v>
       </c>
       <c r="B232" t="s">
         <v>62</v>
       </c>
-      <c r="C232" s="8" t="s">
+      <c r="C232" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D232" s="8" t="s">
+      <c r="D232" s="7" t="s">
         <v>129</v>
       </c>
       <c r="E232"/>
-      <c r="F232" s="8" t="s">
+      <c r="F232" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="G232" s="8" t="s">
+      <c r="G232" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="H232" s="8" t="s">
+      <c r="H232" s="7" t="s">
         <v>347</v>
       </c>
       <c r="I232"/>
-      <c r="J232" s="8" t="s">
+      <c r="J232" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="K232" s="9" t="s">
+      <c r="K232" s="8" t="s">
         <v>806</v>
       </c>
-      <c r="L232" s="8" t="s">
+      <c r="L232" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="AB232" s="8" t="s">
+      <c r="AB232" s="7" t="s">
         <v>693</v>
       </c>
-      <c r="AH232" s="8" t="s">
+      <c r="AH232" s="7" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="233" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A233" s="8" t="s">
+    <row r="233" spans="1:34" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A233" s="7" t="s">
         <v>49</v>
       </c>
       <c r="B233" t="s">
         <v>62</v>
       </c>
-      <c r="C233" s="8" t="s">
+      <c r="C233" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D233" s="8" t="s">
+      <c r="D233" s="7" t="s">
         <v>129</v>
       </c>
       <c r="E233"/>
-      <c r="F233" s="8" t="s">
+      <c r="F233" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="G233" s="8" t="s">
+      <c r="G233" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="H233" s="8" t="s">
+      <c r="H233" s="7" t="s">
         <v>347</v>
       </c>
       <c r="I233"/>
-      <c r="J233" s="8" t="s">
+      <c r="J233" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="K233" s="9" t="s">
+      <c r="K233" s="8" t="s">
         <v>806</v>
       </c>
-      <c r="L233" s="8" t="s">
+      <c r="L233" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="AB233" s="8" t="s">
+      <c r="AB233" s="7" t="s">
         <v>694</v>
       </c>
-      <c r="AH233" s="8" t="s">
+      <c r="AH233" s="7" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="234" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A234" t="s">
+    <row r="234" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A234" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B234" t="s">
         <v>62</v>
       </c>
-      <c r="C234" t="s">
+      <c r="C234" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D234" t="s">
+      <c r="D234" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="F234" t="s">
+      <c r="E234"/>
+      <c r="F234" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="G234" t="s">
+      <c r="G234" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="H234" t="s">
+      <c r="H234" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="J234" t="s">
+      <c r="I234"/>
+      <c r="J234" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="L234" t="s">
+      <c r="L234" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="AB234" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="AH234" t="s">
+      <c r="AB234" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="AH234" s="5" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="235" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A235" t="s">
+    <row r="235" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A235" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B235" t="s">
         <v>62</v>
       </c>
-      <c r="C235" t="s">
+      <c r="C235" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D235" t="s">
+      <c r="D235" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="F235" t="s">
+      <c r="E235"/>
+      <c r="F235" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="G235" t="s">
+      <c r="G235" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="H235" t="s">
+      <c r="H235" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="J235" t="s">
+      <c r="I235"/>
+      <c r="J235" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="L235" t="s">
+      <c r="L235" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="AB235" s="3" t="s">
+      <c r="AB235" s="5" t="s">
         <v>693</v>
       </c>
-      <c r="AH235" t="s">
+      <c r="AH235" s="5" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="236" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A236" t="s">
+    <row r="236" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A236" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B236" t="s">
         <v>62</v>
       </c>
-      <c r="C236" t="s">
+      <c r="C236" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D236" t="s">
+      <c r="D236" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="F236" t="s">
+      <c r="E236"/>
+      <c r="F236" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="G236" t="s">
+      <c r="G236" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="H236" t="s">
+      <c r="H236" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="J236" t="s">
+      <c r="I236"/>
+      <c r="J236" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="L236" t="s">
+      <c r="L236" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="AB236" s="3" t="s">
+      <c r="AB236" s="5" t="s">
         <v>694</v>
       </c>
-      <c r="AH236" t="s">
+      <c r="AH236" s="5" t="s">
         <v>706</v>
       </c>
     </row>
@@ -13358,6 +13359,9 @@
       <c r="J237" t="s">
         <v>439</v>
       </c>
+      <c r="K237" s="4" t="s">
+        <v>807</v>
+      </c>
       <c r="L237" t="s">
         <v>540</v>
       </c>
@@ -13393,6 +13397,9 @@
       <c r="J238" t="s">
         <v>439</v>
       </c>
+      <c r="K238" s="4" t="s">
+        <v>807</v>
+      </c>
       <c r="L238" t="s">
         <v>540</v>
       </c>
@@ -13428,6 +13435,9 @@
       <c r="J239" t="s">
         <v>439</v>
       </c>
+      <c r="K239" s="4" t="s">
+        <v>807</v>
+      </c>
       <c r="L239" t="s">
         <v>540</v>
       </c>
@@ -13438,38 +13448,40 @@
         <v>706</v>
       </c>
     </row>
-    <row r="240" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A240" t="s">
+    <row r="240" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A240" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B240" t="s">
         <v>62</v>
       </c>
-      <c r="C240" t="s">
+      <c r="C240" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D240" t="s">
+      <c r="D240" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="F240" t="s">
+      <c r="E240"/>
+      <c r="F240" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="G240" t="s">
+      <c r="G240" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="H240" t="s">
+      <c r="H240" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="J240" t="s">
+      <c r="I240"/>
+      <c r="J240" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="L240" t="s">
+      <c r="L240" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="AB240" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="AH240" t="s">
+      <c r="AB240" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="AH240" s="5" t="s">
         <v>706</v>
       </c>
     </row>
@@ -13498,6 +13510,9 @@
       <c r="J241" t="s">
         <v>441</v>
       </c>
+      <c r="K241" s="4" t="s">
+        <v>808</v>
+      </c>
       <c r="L241" t="s">
         <v>542</v>
       </c>
@@ -13533,6 +13548,9 @@
       <c r="J242" t="s">
         <v>441</v>
       </c>
+      <c r="K242" s="4" t="s">
+        <v>808</v>
+      </c>
       <c r="L242" t="s">
         <v>542</v>
       </c>
@@ -13568,6 +13586,9 @@
       <c r="J243" t="s">
         <v>441</v>
       </c>
+      <c r="K243" s="4" t="s">
+        <v>808</v>
+      </c>
       <c r="L243" t="s">
         <v>542</v>
       </c>
@@ -13578,1721 +13599,1803 @@
         <v>706</v>
       </c>
     </row>
-    <row r="244" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A244" t="s">
+    <row r="244" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A244" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B244" t="s">
         <v>62</v>
       </c>
-      <c r="C244" t="s">
+      <c r="C244" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D244" t="s">
+      <c r="D244" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="F244" t="s">
+      <c r="E244"/>
+      <c r="F244" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="G244" t="s">
+      <c r="G244" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="H244" t="s">
+      <c r="H244" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="J244" t="s">
+      <c r="I244"/>
+      <c r="J244" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="L244" t="s">
+      <c r="L244" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="AB244" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="AH244" t="s">
+      <c r="AB244" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="AH244" s="5" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="245" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A245" t="s">
+    <row r="245" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A245" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B245" t="s">
         <v>62</v>
       </c>
-      <c r="C245" t="s">
+      <c r="C245" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D245" t="s">
+      <c r="D245" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="F245" t="s">
+      <c r="E245"/>
+      <c r="F245" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="G245" t="s">
+      <c r="G245" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="H245" t="s">
+      <c r="H245" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="J245" t="s">
+      <c r="I245"/>
+      <c r="J245" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="L245" t="s">
+      <c r="L245" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="AB245" s="3" t="s">
+      <c r="AB245" s="5" t="s">
         <v>693</v>
       </c>
-      <c r="AH245" t="s">
+      <c r="AH245" s="5" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="246" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A246" t="s">
+    <row r="246" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A246" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B246" t="s">
         <v>62</v>
       </c>
-      <c r="C246" t="s">
+      <c r="C246" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D246" t="s">
+      <c r="D246" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="F246" t="s">
+      <c r="E246"/>
+      <c r="F246" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="G246" t="s">
+      <c r="G246" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="H246" t="s">
+      <c r="H246" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="J246" t="s">
+      <c r="I246"/>
+      <c r="J246" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="L246" t="s">
+      <c r="L246" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="AB246" s="3" t="s">
+      <c r="AB246" s="5" t="s">
         <v>694</v>
       </c>
-      <c r="AH246" t="s">
+      <c r="AH246" s="5" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="247" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A247" t="s">
+    <row r="247" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A247" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B247" t="s">
         <v>62</v>
       </c>
-      <c r="C247" t="s">
+      <c r="C247" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D247" t="s">
+      <c r="D247" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="F247" t="s">
+      <c r="E247"/>
+      <c r="F247" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="G247" t="s">
+      <c r="G247" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="H247" t="s">
+      <c r="H247" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="J247" t="s">
+      <c r="I247"/>
+      <c r="J247" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="L247" t="s">
+      <c r="L247" s="5" t="s">
         <v>544</v>
       </c>
-      <c r="M247" t="s">
+      <c r="M247" s="5" t="s">
         <v>585</v>
       </c>
-      <c r="N247" t="s">
+      <c r="N247" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="AB247" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="AD247" t="s">
+      <c r="AB247" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="AD247" s="5" t="s">
         <v>701</v>
       </c>
-      <c r="AH247" t="s">
+      <c r="AH247" s="5" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="248" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A248" t="s">
+    <row r="248" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A248" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B248" t="s">
         <v>62</v>
       </c>
-      <c r="C248" t="s">
+      <c r="C248" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D248" t="s">
+      <c r="D248" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="F248" t="s">
+      <c r="E248"/>
+      <c r="F248" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="G248" t="s">
+      <c r="G248" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="H248" t="s">
+      <c r="H248" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="J248" t="s">
+      <c r="I248"/>
+      <c r="J248" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="L248" t="s">
+      <c r="L248" s="5" t="s">
         <v>544</v>
       </c>
-      <c r="M248" t="s">
+      <c r="M248" s="5" t="s">
         <v>585</v>
       </c>
-      <c r="N248" t="s">
+      <c r="N248" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="AB248" s="3" t="s">
+      <c r="AB248" s="5" t="s">
         <v>693</v>
       </c>
-      <c r="AD248" t="s">
+      <c r="AD248" s="5" t="s">
         <v>700</v>
       </c>
-      <c r="AH248" t="s">
+      <c r="AH248" s="5" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="249" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A249" t="s">
+    <row r="249" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A249" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B249" t="s">
         <v>62</v>
       </c>
-      <c r="C249" t="s">
+      <c r="C249" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D249" t="s">
+      <c r="D249" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="F249" t="s">
+      <c r="E249"/>
+      <c r="F249" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="G249" t="s">
+      <c r="G249" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="H249" t="s">
+      <c r="H249" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="J249" t="s">
+      <c r="I249"/>
+      <c r="J249" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="L249" t="s">
+      <c r="L249" s="5" t="s">
         <v>544</v>
       </c>
-      <c r="M249" t="s">
+      <c r="M249" s="5" t="s">
         <v>585</v>
       </c>
-      <c r="N249" t="s">
+      <c r="N249" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="AB249" s="3" t="s">
+      <c r="AB249" s="5" t="s">
         <v>694</v>
       </c>
-      <c r="AD249" t="s">
+      <c r="AD249" s="5" t="s">
         <v>699</v>
       </c>
-      <c r="AH249" t="s">
+      <c r="AH249" s="5" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="250" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A250" t="s">
+    <row r="250" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A250" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B250" t="s">
         <v>62</v>
       </c>
-      <c r="C250" t="s">
+      <c r="C250" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D250" t="s">
+      <c r="D250" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="F250" t="s">
+      <c r="E250"/>
+      <c r="F250" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="G250" t="s">
+      <c r="G250" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="H250" t="s">
+      <c r="H250" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="J250" t="s">
+      <c r="I250"/>
+      <c r="J250" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="L250" t="s">
+      <c r="L250" s="5" t="s">
         <v>544</v>
       </c>
-      <c r="M250" t="s">
+      <c r="M250" s="5" t="s">
         <v>585</v>
       </c>
-      <c r="N250" t="s">
+      <c r="N250" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="AB250" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="AD250" t="s">
+      <c r="AB250" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="AD250" s="5" t="s">
         <v>698</v>
       </c>
-      <c r="AH250" t="s">
+      <c r="AH250" s="5" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="251" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A251" t="s">
+    <row r="251" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A251" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B251" t="s">
         <v>62</v>
       </c>
-      <c r="C251" t="s">
+      <c r="C251" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D251" t="s">
+      <c r="D251" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="F251" t="s">
+      <c r="E251"/>
+      <c r="F251" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="G251" t="s">
+      <c r="G251" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="H251" t="s">
+      <c r="H251" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="J251" t="s">
+      <c r="I251"/>
+      <c r="J251" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="L251" t="s">
+      <c r="L251" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="M251" t="s">
+      <c r="M251" s="5" t="s">
         <v>586</v>
       </c>
-      <c r="N251" t="s">
+      <c r="N251" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="AB251" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="AD251" t="s">
+      <c r="AB251" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="AD251" s="5" t="s">
         <v>698</v>
       </c>
-      <c r="AH251" t="s">
+      <c r="AH251" s="5" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="252" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A252" t="s">
+    <row r="252" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A252" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B252" t="s">
         <v>62</v>
       </c>
-      <c r="C252" t="s">
+      <c r="C252" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D252" t="s">
+      <c r="D252" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="F252" t="s">
+      <c r="E252"/>
+      <c r="F252" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="G252" t="s">
+      <c r="G252" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="H252" t="s">
+      <c r="H252" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="J252" t="s">
+      <c r="I252"/>
+      <c r="J252" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="L252" t="s">
+      <c r="L252" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="M252" t="s">
+      <c r="M252" s="5" t="s">
         <v>586</v>
       </c>
-      <c r="N252" t="s">
+      <c r="N252" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="AB252" s="3" t="s">
+      <c r="AB252" s="5" t="s">
         <v>693</v>
       </c>
-      <c r="AD252" t="s">
+      <c r="AD252" s="5" t="s">
         <v>700</v>
       </c>
-      <c r="AH252" t="s">
+      <c r="AH252" s="5" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="253" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A253" t="s">
+    <row r="253" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A253" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B253" t="s">
         <v>62</v>
       </c>
-      <c r="C253" t="s">
+      <c r="C253" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D253" t="s">
+      <c r="D253" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="F253" t="s">
+      <c r="E253"/>
+      <c r="F253" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="G253" t="s">
+      <c r="G253" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="H253" t="s">
+      <c r="H253" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="J253" t="s">
+      <c r="I253"/>
+      <c r="J253" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="L253" t="s">
+      <c r="L253" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="M253" t="s">
+      <c r="M253" s="5" t="s">
         <v>586</v>
       </c>
-      <c r="N253" t="s">
+      <c r="N253" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="AB253" s="3" t="s">
+      <c r="AB253" s="5" t="s">
         <v>694</v>
       </c>
-      <c r="AD253" t="s">
+      <c r="AD253" s="5" t="s">
         <v>699</v>
       </c>
-      <c r="AH253" t="s">
+      <c r="AH253" s="5" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="254" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A254" t="s">
+    <row r="254" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A254" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B254" t="s">
         <v>62</v>
       </c>
-      <c r="C254" t="s">
+      <c r="C254" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D254" t="s">
+      <c r="D254" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="F254" t="s">
+      <c r="E254"/>
+      <c r="F254" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="G254" t="s">
+      <c r="G254" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="H254" t="s">
+      <c r="H254" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="J254" t="s">
+      <c r="I254"/>
+      <c r="J254" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="L254" t="s">
+      <c r="L254" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="M254" t="s">
+      <c r="M254" s="5" t="s">
         <v>587</v>
       </c>
-      <c r="N254" t="s">
+      <c r="N254" s="5" t="s">
         <v>627</v>
       </c>
-      <c r="AB254" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="AD254" t="s">
+      <c r="AB254" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="AD254" s="5" t="s">
         <v>698</v>
       </c>
-      <c r="AH254" t="s">
+      <c r="AH254" s="5" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="255" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A255" t="s">
+    <row r="255" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A255" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B255" t="s">
         <v>62</v>
       </c>
-      <c r="C255" t="s">
+      <c r="C255" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D255" t="s">
+      <c r="D255" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="F255" t="s">
+      <c r="E255"/>
+      <c r="F255" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="G255" t="s">
+      <c r="G255" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="H255" t="s">
+      <c r="H255" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="J255" t="s">
+      <c r="I255"/>
+      <c r="J255" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="L255" t="s">
+      <c r="L255" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="M255" t="s">
+      <c r="M255" s="5" t="s">
         <v>587</v>
       </c>
-      <c r="N255" t="s">
+      <c r="N255" s="5" t="s">
         <v>627</v>
       </c>
-      <c r="AB255" s="3" t="s">
+      <c r="AB255" s="5" t="s">
         <v>693</v>
       </c>
-      <c r="AD255" t="s">
+      <c r="AD255" s="5" t="s">
         <v>700</v>
       </c>
-      <c r="AH255" t="s">
+      <c r="AH255" s="5" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="256" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A256" t="s">
+    <row r="256" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A256" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B256" t="s">
         <v>62</v>
       </c>
-      <c r="C256" t="s">
+      <c r="C256" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D256" t="s">
+      <c r="D256" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="F256" t="s">
+      <c r="E256"/>
+      <c r="F256" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="G256" t="s">
+      <c r="G256" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="H256" t="s">
+      <c r="H256" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="J256" t="s">
+      <c r="I256"/>
+      <c r="J256" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="L256" t="s">
+      <c r="L256" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="M256" t="s">
+      <c r="M256" s="5" t="s">
         <v>587</v>
       </c>
-      <c r="N256" t="s">
+      <c r="N256" s="5" t="s">
         <v>627</v>
       </c>
-      <c r="AB256" s="3" t="s">
+      <c r="AB256" s="5" t="s">
         <v>694</v>
       </c>
-      <c r="AD256" t="s">
+      <c r="AD256" s="5" t="s">
         <v>699</v>
       </c>
-      <c r="AH256" t="s">
+      <c r="AH256" s="5" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="257" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A257" t="s">
+    <row r="257" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A257" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B257" t="s">
         <v>62</v>
       </c>
-      <c r="C257" t="s">
+      <c r="C257" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D257" t="s">
+      <c r="D257" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="F257" t="s">
+      <c r="E257"/>
+      <c r="F257" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="G257" t="s">
+      <c r="G257" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="H257" t="s">
+      <c r="H257" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="J257" t="s">
+      <c r="I257"/>
+      <c r="J257" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="L257" t="s">
+      <c r="L257" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M257" t="s">
+      <c r="M257" s="5" t="s">
         <v>588</v>
       </c>
-      <c r="N257" t="s">
+      <c r="N257" s="5" t="s">
         <v>628</v>
       </c>
-      <c r="AB257" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="AD257" t="s">
+      <c r="AB257" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="AD257" s="5" t="s">
         <v>698</v>
       </c>
-      <c r="AH257" t="s">
+      <c r="AH257" s="5" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="258" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A258" t="s">
+    <row r="258" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A258" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B258" t="s">
         <v>62</v>
       </c>
-      <c r="C258" t="s">
+      <c r="C258" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D258" t="s">
+      <c r="D258" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="F258" t="s">
+      <c r="E258"/>
+      <c r="F258" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="G258" t="s">
+      <c r="G258" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="H258" t="s">
+      <c r="H258" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="J258" t="s">
+      <c r="I258"/>
+      <c r="J258" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="L258" t="s">
+      <c r="L258" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M258" t="s">
+      <c r="M258" s="5" t="s">
         <v>588</v>
       </c>
-      <c r="N258" t="s">
+      <c r="N258" s="5" t="s">
         <v>628</v>
       </c>
-      <c r="AB258" s="3" t="s">
+      <c r="AB258" s="5" t="s">
         <v>693</v>
       </c>
-      <c r="AD258" t="s">
+      <c r="AD258" s="5" t="s">
         <v>700</v>
       </c>
-      <c r="AH258" t="s">
+      <c r="AH258" s="5" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="259" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A259" t="s">
+    <row r="259" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A259" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B259" t="s">
         <v>62</v>
       </c>
-      <c r="C259" t="s">
+      <c r="C259" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D259" t="s">
+      <c r="D259" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="F259" t="s">
+      <c r="E259"/>
+      <c r="F259" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="G259" t="s">
+      <c r="G259" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="H259" t="s">
+      <c r="H259" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="J259" t="s">
+      <c r="I259"/>
+      <c r="J259" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="L259" t="s">
+      <c r="L259" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M259" t="s">
+      <c r="M259" s="5" t="s">
         <v>588</v>
       </c>
-      <c r="N259" t="s">
+      <c r="N259" s="5" t="s">
         <v>628</v>
       </c>
-      <c r="AB259" s="3" t="s">
+      <c r="AB259" s="5" t="s">
         <v>694</v>
       </c>
-      <c r="AD259" t="s">
+      <c r="AD259" s="5" t="s">
         <v>699</v>
       </c>
-      <c r="AH259" t="s">
+      <c r="AH259" s="5" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="260" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A260" t="s">
+    <row r="260" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A260" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B260" t="s">
         <v>62</v>
       </c>
-      <c r="C260" t="s">
+      <c r="C260" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D260" t="s">
+      <c r="D260" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="F260" t="s">
+      <c r="E260"/>
+      <c r="F260" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="G260" t="s">
+      <c r="G260" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="H260" t="s">
+      <c r="H260" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="J260" t="s">
+      <c r="I260"/>
+      <c r="J260" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="L260" t="s">
+      <c r="L260" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="M260" t="s">
+      <c r="M260" s="5" t="s">
         <v>589</v>
       </c>
-      <c r="N260" t="s">
+      <c r="N260" s="5" t="s">
         <v>629</v>
       </c>
-      <c r="AB260" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="AD260" t="s">
+      <c r="AB260" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="AD260" s="5" t="s">
         <v>698</v>
       </c>
-      <c r="AH260" t="s">
+      <c r="AH260" s="5" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="261" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A261" t="s">
+    <row r="261" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A261" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B261" t="s">
         <v>62</v>
       </c>
-      <c r="C261" t="s">
+      <c r="C261" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D261" t="s">
+      <c r="D261" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="F261" t="s">
+      <c r="E261"/>
+      <c r="F261" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="G261" t="s">
+      <c r="G261" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="H261" t="s">
+      <c r="H261" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="J261" t="s">
+      <c r="I261"/>
+      <c r="J261" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="L261" t="s">
+      <c r="L261" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="M261" t="s">
+      <c r="M261" s="5" t="s">
         <v>589</v>
       </c>
-      <c r="N261" t="s">
+      <c r="N261" s="5" t="s">
         <v>629</v>
       </c>
-      <c r="AB261" s="3" t="s">
+      <c r="AB261" s="5" t="s">
         <v>693</v>
       </c>
-      <c r="AD261" t="s">
+      <c r="AD261" s="5" t="s">
         <v>700</v>
       </c>
-      <c r="AH261" t="s">
+      <c r="AH261" s="5" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="262" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A262" t="s">
+    <row r="262" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A262" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B262" t="s">
         <v>62</v>
       </c>
-      <c r="C262" t="s">
+      <c r="C262" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D262" t="s">
+      <c r="D262" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="F262" t="s">
+      <c r="E262"/>
+      <c r="F262" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="G262" t="s">
+      <c r="G262" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="H262" t="s">
+      <c r="H262" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="J262" t="s">
+      <c r="I262"/>
+      <c r="J262" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="L262" t="s">
+      <c r="L262" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="M262" t="s">
+      <c r="M262" s="5" t="s">
         <v>589</v>
       </c>
-      <c r="N262" t="s">
+      <c r="N262" s="5" t="s">
         <v>629</v>
       </c>
-      <c r="AB262" s="3" t="s">
+      <c r="AB262" s="5" t="s">
         <v>694</v>
       </c>
-      <c r="AD262" t="s">
+      <c r="AD262" s="5" t="s">
         <v>699</v>
       </c>
-      <c r="AH262" t="s">
+      <c r="AH262" s="5" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="263" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A263" t="s">
+    <row r="263" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A263" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B263" t="s">
         <v>62</v>
       </c>
-      <c r="C263" t="s">
+      <c r="C263" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D263" t="s">
+      <c r="D263" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="F263" t="s">
+      <c r="E263"/>
+      <c r="F263" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="G263" t="s">
+      <c r="G263" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="H263" t="s">
+      <c r="H263" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="J263" t="s">
+      <c r="I263"/>
+      <c r="J263" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="L263" t="s">
+      <c r="L263" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="M263" t="s">
+      <c r="M263" s="5" t="s">
         <v>590</v>
       </c>
-      <c r="N263" t="s">
+      <c r="N263" s="5" t="s">
         <v>630</v>
       </c>
-      <c r="AB263" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="AD263" t="s">
+      <c r="AB263" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="AD263" s="5" t="s">
         <v>698</v>
       </c>
-      <c r="AH263" t="s">
+      <c r="AH263" s="5" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="264" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A264" t="s">
+    <row r="264" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A264" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B264" t="s">
         <v>62</v>
       </c>
-      <c r="C264" t="s">
+      <c r="C264" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D264" t="s">
+      <c r="D264" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="F264" t="s">
+      <c r="E264"/>
+      <c r="F264" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="G264" t="s">
+      <c r="G264" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="H264" t="s">
+      <c r="H264" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="J264" t="s">
+      <c r="I264"/>
+      <c r="J264" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="L264" t="s">
+      <c r="L264" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="M264" t="s">
+      <c r="M264" s="5" t="s">
         <v>590</v>
       </c>
-      <c r="N264" t="s">
+      <c r="N264" s="5" t="s">
         <v>630</v>
       </c>
-      <c r="AB264" s="3" t="s">
+      <c r="AB264" s="5" t="s">
         <v>693</v>
       </c>
-      <c r="AD264" t="s">
+      <c r="AD264" s="5" t="s">
         <v>700</v>
       </c>
-      <c r="AH264" t="s">
+      <c r="AH264" s="5" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="265" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A265" t="s">
+    <row r="265" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A265" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B265" t="s">
         <v>62</v>
       </c>
-      <c r="C265" t="s">
+      <c r="C265" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D265" t="s">
+      <c r="D265" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="F265" t="s">
+      <c r="E265"/>
+      <c r="F265" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="G265" t="s">
+      <c r="G265" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="H265" t="s">
+      <c r="H265" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="J265" t="s">
+      <c r="I265"/>
+      <c r="J265" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="L265" t="s">
+      <c r="L265" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="M265" t="s">
+      <c r="M265" s="5" t="s">
         <v>590</v>
       </c>
-      <c r="N265" t="s">
+      <c r="N265" s="5" t="s">
         <v>630</v>
       </c>
-      <c r="AB265" s="3" t="s">
+      <c r="AB265" s="5" t="s">
         <v>694</v>
       </c>
-      <c r="AD265" t="s">
+      <c r="AD265" s="5" t="s">
         <v>699</v>
       </c>
-      <c r="AH265" t="s">
+      <c r="AH265" s="5" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="266" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A266" t="s">
+    <row r="266" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A266" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B266" t="s">
         <v>62</v>
       </c>
-      <c r="C266" t="s">
+      <c r="C266" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D266" t="s">
+      <c r="D266" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="F266" t="s">
+      <c r="E266"/>
+      <c r="F266" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="G266" t="s">
+      <c r="G266" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="H266" t="s">
+      <c r="H266" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="J266" t="s">
+      <c r="I266"/>
+      <c r="J266" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="L266" t="s">
+      <c r="L266" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="M266" t="s">
+      <c r="M266" s="5" t="s">
         <v>591</v>
       </c>
-      <c r="N266" t="s">
+      <c r="N266" s="5" t="s">
         <v>631</v>
       </c>
-      <c r="AB266" s="3" t="s">
+      <c r="AB266" s="5" t="s">
         <v>693</v>
       </c>
-      <c r="AH266" t="s">
+      <c r="AH266" s="5" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="267" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A267" t="s">
+    <row r="267" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A267" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B267" t="s">
         <v>62</v>
       </c>
-      <c r="C267" t="s">
+      <c r="C267" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D267" t="s">
+      <c r="D267" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="F267" t="s">
+      <c r="E267"/>
+      <c r="F267" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="G267" t="s">
+      <c r="G267" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="H267" t="s">
+      <c r="H267" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="J267" t="s">
+      <c r="I267"/>
+      <c r="J267" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="L267" t="s">
+      <c r="L267" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="M267" t="s">
+      <c r="M267" s="5" t="s">
         <v>591</v>
       </c>
-      <c r="N267" t="s">
+      <c r="N267" s="5" t="s">
         <v>631</v>
       </c>
-      <c r="AB267" s="3" t="s">
+      <c r="AB267" s="5" t="s">
         <v>694</v>
       </c>
-      <c r="AH267" t="s">
+      <c r="AH267" s="5" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="268" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A268" t="s">
+    <row r="268" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A268" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B268" t="s">
         <v>62</v>
       </c>
-      <c r="C268" t="s">
+      <c r="C268" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D268" t="s">
+      <c r="D268" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="F268" t="s">
+      <c r="E268"/>
+      <c r="F268" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="G268" t="s">
+      <c r="G268" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="H268" t="s">
+      <c r="H268" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="J268" t="s">
+      <c r="I268"/>
+      <c r="J268" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="L268" t="s">
+      <c r="L268" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="M268" t="s">
+      <c r="M268" s="5" t="s">
         <v>591</v>
       </c>
-      <c r="N268" t="s">
+      <c r="N268" s="5" t="s">
         <v>631</v>
       </c>
-      <c r="AB268" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="AH268" t="s">
+      <c r="AB268" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="AH268" s="5" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="269" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A269" t="s">
+    <row r="269" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A269" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B269" t="s">
         <v>62</v>
       </c>
-      <c r="C269" t="s">
+      <c r="C269" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D269" t="s">
+      <c r="D269" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="F269" t="s">
+      <c r="E269"/>
+      <c r="F269" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="G269" t="s">
+      <c r="G269" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="H269" t="s">
+      <c r="H269" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="J269" t="s">
+      <c r="I269"/>
+      <c r="J269" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="L269" t="s">
+      <c r="L269" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="M269" t="s">
+      <c r="M269" s="5" t="s">
         <v>591</v>
       </c>
-      <c r="N269" t="s">
+      <c r="N269" s="5" t="s">
         <v>631</v>
       </c>
-      <c r="P269" t="s">
+      <c r="P269" s="5" t="s">
         <v>652</v>
       </c>
-      <c r="AB269" s="3" t="s">
+      <c r="AB269" s="5" t="s">
         <v>693</v>
       </c>
-      <c r="AH269" t="s">
+      <c r="AH269" s="5" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="270" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A270" t="s">
+    <row r="270" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A270" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B270" t="s">
         <v>62</v>
       </c>
-      <c r="C270" t="s">
+      <c r="C270" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D270" t="s">
+      <c r="D270" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="F270" t="s">
+      <c r="E270"/>
+      <c r="F270" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="G270" t="s">
+      <c r="G270" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="H270" t="s">
+      <c r="H270" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="J270" t="s">
+      <c r="I270"/>
+      <c r="J270" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="L270" t="s">
+      <c r="L270" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="M270" t="s">
+      <c r="M270" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="N270" t="s">
+      <c r="N270" s="5" t="s">
         <v>632</v>
       </c>
-      <c r="AB270" s="3" t="s">
+      <c r="AB270" s="5" t="s">
         <v>693</v>
       </c>
-      <c r="AH270" t="s">
+      <c r="AH270" s="5" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="271" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A271" t="s">
+    <row r="271" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A271" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B271" t="s">
         <v>62</v>
       </c>
-      <c r="C271" t="s">
+      <c r="C271" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D271" t="s">
+      <c r="D271" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="F271" t="s">
+      <c r="E271"/>
+      <c r="F271" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="G271" t="s">
+      <c r="G271" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="H271" t="s">
+      <c r="H271" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="J271" t="s">
+      <c r="I271"/>
+      <c r="J271" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="L271" t="s">
+      <c r="L271" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="M271" t="s">
+      <c r="M271" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="N271" t="s">
+      <c r="N271" s="5" t="s">
         <v>632</v>
       </c>
-      <c r="AB271" s="3" t="s">
+      <c r="AB271" s="5" t="s">
         <v>694</v>
       </c>
-      <c r="AH271" t="s">
+      <c r="AH271" s="5" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="272" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A272" t="s">
+    <row r="272" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A272" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B272" t="s">
         <v>62</v>
       </c>
-      <c r="C272" t="s">
+      <c r="C272" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D272" t="s">
+      <c r="D272" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="F272" t="s">
+      <c r="E272"/>
+      <c r="F272" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="G272" t="s">
+      <c r="G272" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="H272" t="s">
+      <c r="H272" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="J272" t="s">
+      <c r="I272"/>
+      <c r="J272" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="L272" t="s">
+      <c r="L272" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="M272" t="s">
+      <c r="M272" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="N272" t="s">
+      <c r="N272" s="5" t="s">
         <v>632</v>
       </c>
-      <c r="AB272" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="AH272" t="s">
+      <c r="AB272" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="AH272" s="5" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="273" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A273" t="s">
+    <row r="273" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A273" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B273" t="s">
         <v>62</v>
       </c>
-      <c r="C273" t="s">
+      <c r="C273" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D273" t="s">
+      <c r="D273" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="F273" t="s">
+      <c r="E273"/>
+      <c r="F273" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="G273" t="s">
+      <c r="G273" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="H273" t="s">
+      <c r="H273" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="J273" t="s">
+      <c r="I273"/>
+      <c r="J273" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="L273" t="s">
+      <c r="L273" s="5" t="s">
         <v>552</v>
       </c>
-      <c r="M273" t="s">
+      <c r="M273" s="5" t="s">
         <v>593</v>
       </c>
-      <c r="N273" t="s">
+      <c r="N273" s="5" t="s">
         <v>633</v>
       </c>
-      <c r="AB273" s="3" t="s">
+      <c r="AB273" s="5" t="s">
         <v>693</v>
       </c>
-      <c r="AH273" t="s">
+      <c r="AH273" s="5" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="274" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A274" t="s">
+    <row r="274" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A274" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B274" t="s">
         <v>62</v>
       </c>
-      <c r="C274" t="s">
+      <c r="C274" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D274" t="s">
+      <c r="D274" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="F274" t="s">
+      <c r="E274"/>
+      <c r="F274" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="G274" t="s">
+      <c r="G274" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="H274" t="s">
+      <c r="H274" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="J274" t="s">
+      <c r="I274"/>
+      <c r="J274" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="L274" t="s">
+      <c r="L274" s="5" t="s">
         <v>552</v>
       </c>
-      <c r="M274" t="s">
+      <c r="M274" s="5" t="s">
         <v>593</v>
       </c>
-      <c r="N274" t="s">
+      <c r="N274" s="5" t="s">
         <v>633</v>
       </c>
-      <c r="AB274" s="3" t="s">
+      <c r="AB274" s="5" t="s">
         <v>694</v>
       </c>
-      <c r="AH274" t="s">
+      <c r="AH274" s="5" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="275" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A275" t="s">
+    <row r="275" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A275" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B275" t="s">
         <v>62</v>
       </c>
-      <c r="C275" t="s">
+      <c r="C275" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D275" t="s">
+      <c r="D275" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="F275" t="s">
+      <c r="E275"/>
+      <c r="F275" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="G275" t="s">
+      <c r="G275" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="H275" t="s">
+      <c r="H275" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="J275" t="s">
+      <c r="I275"/>
+      <c r="J275" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="L275" t="s">
+      <c r="L275" s="5" t="s">
         <v>552</v>
       </c>
-      <c r="M275" t="s">
+      <c r="M275" s="5" t="s">
         <v>593</v>
       </c>
-      <c r="N275" t="s">
+      <c r="N275" s="5" t="s">
         <v>633</v>
       </c>
-      <c r="AB275" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="AH275" t="s">
+      <c r="AB275" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="AH275" s="5" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="276" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A276" t="s">
+    <row r="276" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A276" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B276" t="s">
         <v>62</v>
       </c>
-      <c r="C276" t="s">
+      <c r="C276" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D276" t="s">
+      <c r="D276" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="F276" t="s">
+      <c r="E276"/>
+      <c r="F276" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="G276" t="s">
+      <c r="G276" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="H276" t="s">
+      <c r="H276" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="J276" t="s">
+      <c r="I276"/>
+      <c r="J276" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="L276" t="s">
+      <c r="L276" s="5" t="s">
         <v>553</v>
       </c>
-      <c r="M276" t="s">
+      <c r="M276" s="5" t="s">
         <v>594</v>
       </c>
-      <c r="N276" t="s">
+      <c r="N276" s="5" t="s">
         <v>634</v>
       </c>
-      <c r="AB276" s="3" t="s">
+      <c r="AB276" s="5" t="s">
         <v>693</v>
       </c>
-      <c r="AH276" t="s">
+      <c r="AH276" s="5" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="277" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A277" t="s">
+    <row r="277" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A277" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B277" t="s">
         <v>62</v>
       </c>
-      <c r="C277" t="s">
+      <c r="C277" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D277" t="s">
+      <c r="D277" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="F277" t="s">
+      <c r="E277"/>
+      <c r="F277" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="G277" t="s">
+      <c r="G277" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="H277" t="s">
+      <c r="H277" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="J277" t="s">
+      <c r="I277"/>
+      <c r="J277" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="L277" t="s">
+      <c r="L277" s="5" t="s">
         <v>553</v>
       </c>
-      <c r="M277" t="s">
+      <c r="M277" s="5" t="s">
         <v>594</v>
       </c>
-      <c r="N277" t="s">
+      <c r="N277" s="5" t="s">
         <v>634</v>
       </c>
-      <c r="AB277" s="3" t="s">
+      <c r="AB277" s="5" t="s">
         <v>694</v>
       </c>
-      <c r="AH277" t="s">
+      <c r="AH277" s="5" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="278" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A278" t="s">
+    <row r="278" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A278" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B278" t="s">
         <v>62</v>
       </c>
-      <c r="C278" t="s">
+      <c r="C278" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D278" t="s">
+      <c r="D278" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="F278" t="s">
+      <c r="E278"/>
+      <c r="F278" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="G278" t="s">
+      <c r="G278" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="H278" t="s">
+      <c r="H278" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="J278" t="s">
+      <c r="I278"/>
+      <c r="J278" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="L278" t="s">
+      <c r="L278" s="5" t="s">
         <v>553</v>
       </c>
-      <c r="M278" t="s">
+      <c r="M278" s="5" t="s">
         <v>594</v>
       </c>
-      <c r="N278" t="s">
+      <c r="N278" s="5" t="s">
         <v>634</v>
       </c>
-      <c r="AB278" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="AH278" t="s">
+      <c r="AB278" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="AH278" s="5" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="279" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A279" t="s">
+    <row r="279" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A279" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B279" t="s">
         <v>62</v>
       </c>
-      <c r="C279" t="s">
+      <c r="C279" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D279" t="s">
+      <c r="D279" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="F279" t="s">
+      <c r="E279"/>
+      <c r="F279" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="G279" t="s">
+      <c r="G279" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="H279" t="s">
+      <c r="H279" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="J279" t="s">
+      <c r="I279"/>
+      <c r="J279" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="L279" t="s">
+      <c r="L279" s="5" t="s">
         <v>554</v>
       </c>
-      <c r="M279" t="s">
+      <c r="M279" s="5" t="s">
         <v>595</v>
       </c>
-      <c r="N279" t="s">
+      <c r="N279" s="5" t="s">
         <v>635</v>
       </c>
-      <c r="AB279" s="3" t="s">
+      <c r="AB279" s="5" t="s">
         <v>693</v>
       </c>
-      <c r="AH279" t="s">
+      <c r="AH279" s="5" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="280" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A280" t="s">
+    <row r="280" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A280" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B280" t="s">
         <v>62</v>
       </c>
-      <c r="C280" t="s">
+      <c r="C280" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D280" t="s">
+      <c r="D280" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="F280" t="s">
+      <c r="E280"/>
+      <c r="F280" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="G280" t="s">
+      <c r="G280" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="H280" t="s">
+      <c r="H280" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="J280" t="s">
+      <c r="I280"/>
+      <c r="J280" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="L280" t="s">
+      <c r="L280" s="5" t="s">
         <v>554</v>
       </c>
-      <c r="M280" t="s">
+      <c r="M280" s="5" t="s">
         <v>595</v>
       </c>
-      <c r="N280" t="s">
+      <c r="N280" s="5" t="s">
         <v>635</v>
       </c>
-      <c r="AB280" s="3" t="s">
+      <c r="AB280" s="5" t="s">
         <v>694</v>
       </c>
-      <c r="AH280" t="s">
+      <c r="AH280" s="5" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="281" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A281" t="s">
+    <row r="281" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A281" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B281" t="s">
         <v>62</v>
       </c>
-      <c r="C281" t="s">
+      <c r="C281" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D281" t="s">
+      <c r="D281" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="F281" t="s">
+      <c r="E281"/>
+      <c r="F281" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="G281" t="s">
+      <c r="G281" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="H281" t="s">
+      <c r="H281" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="J281" t="s">
+      <c r="I281"/>
+      <c r="J281" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="L281" t="s">
+      <c r="L281" s="5" t="s">
         <v>554</v>
       </c>
-      <c r="M281" t="s">
+      <c r="M281" s="5" t="s">
         <v>595</v>
       </c>
-      <c r="N281" t="s">
+      <c r="N281" s="5" t="s">
         <v>635</v>
       </c>
-      <c r="AB281" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="AH281" t="s">
+      <c r="AB281" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="AH281" s="5" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="282" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A282" t="s">
+    <row r="282" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A282" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B282" t="s">
         <v>62</v>
       </c>
-      <c r="C282" t="s">
+      <c r="C282" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D282" t="s">
+      <c r="D282" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="F282" t="s">
+      <c r="E282"/>
+      <c r="F282" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="G282" t="s">
+      <c r="G282" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="H282" t="s">
+      <c r="H282" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="J282" t="s">
+      <c r="I282"/>
+      <c r="J282" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="L282" t="s">
+      <c r="L282" s="5" t="s">
         <v>555</v>
       </c>
-      <c r="AB282" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="AD282" t="s">
+      <c r="AB282" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="AD282" s="5" t="s">
         <v>698</v>
       </c>
-      <c r="AH282" t="s">
+      <c r="AH282" s="5" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="283" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A283" t="s">
+    <row r="283" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A283" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B283" t="s">
         <v>62</v>
       </c>
-      <c r="C283" t="s">
+      <c r="C283" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D283" t="s">
+      <c r="D283" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="F283" t="s">
+      <c r="E283"/>
+      <c r="F283" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="G283" t="s">
+      <c r="G283" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="H283" t="s">
+      <c r="H283" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="J283" t="s">
+      <c r="I283"/>
+      <c r="J283" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="L283" t="s">
+      <c r="L283" s="5" t="s">
         <v>555</v>
       </c>
-      <c r="AB283" s="3" t="s">
+      <c r="AB283" s="5" t="s">
         <v>693</v>
       </c>
-      <c r="AD283" t="s">
+      <c r="AD283" s="5" t="s">
         <v>700</v>
       </c>
-      <c r="AH283" t="s">
+      <c r="AH283" s="5" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="284" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A284" t="s">
+    <row r="284" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A284" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B284" t="s">
         <v>62</v>
       </c>
-      <c r="C284" t="s">
+      <c r="C284" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D284" t="s">
+      <c r="D284" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="F284" t="s">
+      <c r="E284"/>
+      <c r="F284" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="G284" t="s">
+      <c r="G284" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="H284" t="s">
+      <c r="H284" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="J284" t="s">
+      <c r="I284"/>
+      <c r="J284" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="L284" t="s">
+      <c r="L284" s="5" t="s">
         <v>555</v>
       </c>
-      <c r="AB284" s="3" t="s">
+      <c r="AB284" s="5" t="s">
         <v>694</v>
       </c>
-      <c r="AD284" t="s">
+      <c r="AD284" s="5" t="s">
         <v>699</v>
       </c>
-      <c r="AH284" t="s">
+      <c r="AH284" s="5" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="285" spans="1:34" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A285" s="5" t="s">
         <v>50</v>
       </c>
@@ -15329,7 +15432,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="286" spans="1:34" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A286" s="5" t="s">
         <v>50</v>
       </c>
@@ -15369,7 +15472,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="287" spans="1:34" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A287" s="5" t="s">
         <v>50</v>
       </c>
@@ -15409,7 +15512,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="288" spans="1:34" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A288" s="5" t="s">
         <v>50</v>
       </c>
@@ -15449,7 +15552,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="289" spans="1:35" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A289" s="5" t="s">
         <v>50</v>
       </c>
@@ -15495,7 +15598,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="290" spans="1:35" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A290" s="5" t="s">
         <v>50</v>
       </c>
@@ -15535,7 +15638,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="291" spans="1:35" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A291" s="5" t="s">
         <v>50</v>
       </c>
@@ -15578,7 +15681,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="292" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>50</v>
       </c>
@@ -15619,154 +15722,154 @@
         <v>706</v>
       </c>
     </row>
-    <row r="293" spans="1:35" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A293" s="8" t="s">
+    <row r="293" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A293" s="7" t="s">
         <v>50</v>
       </c>
       <c r="B293" t="s">
         <v>63</v>
       </c>
-      <c r="C293" s="8" t="s">
+      <c r="C293" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D293" s="8" t="s">
+      <c r="D293" s="7" t="s">
         <v>141</v>
       </c>
       <c r="E293"/>
-      <c r="F293" s="8" t="s">
+      <c r="F293" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="G293" s="8" t="s">
+      <c r="G293" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="H293" s="8" t="s">
+      <c r="H293" s="7" t="s">
         <v>363</v>
       </c>
       <c r="I293"/>
-      <c r="J293" s="8" t="s">
+      <c r="J293" s="7" t="s">
         <v>453</v>
       </c>
       <c r="K293" s="4" t="s">
         <v>777</v>
       </c>
-      <c r="L293" s="8" t="s">
+      <c r="L293" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="M293" s="8" t="s">
+      <c r="M293" s="7" t="s">
         <v>597</v>
       </c>
-      <c r="N293" s="8" t="s">
+      <c r="N293" s="7" t="s">
         <v>637</v>
       </c>
-      <c r="AB293" s="8" t="s">
-        <v>692</v>
-      </c>
-      <c r="AD293" s="8" t="s">
+      <c r="AB293" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="AD293" s="7" t="s">
         <v>698</v>
       </c>
-      <c r="AH293" s="8" t="s">
+      <c r="AH293" s="7" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="294" spans="1:35" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A294" s="8" t="s">
+    <row r="294" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A294" s="7" t="s">
         <v>50</v>
       </c>
       <c r="B294" t="s">
         <v>63</v>
       </c>
-      <c r="C294" s="8" t="s">
+      <c r="C294" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D294" s="8" t="s">
+      <c r="D294" s="7" t="s">
         <v>141</v>
       </c>
       <c r="E294"/>
-      <c r="F294" s="8" t="s">
+      <c r="F294" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="G294" s="8" t="s">
+      <c r="G294" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="H294" s="8" t="s">
+      <c r="H294" s="7" t="s">
         <v>363</v>
       </c>
       <c r="I294"/>
-      <c r="J294" s="8" t="s">
+      <c r="J294" s="7" t="s">
         <v>453</v>
       </c>
       <c r="K294" s="4" t="s">
         <v>777</v>
       </c>
-      <c r="L294" s="8" t="s">
+      <c r="L294" s="7" t="s">
         <v>564</v>
       </c>
-      <c r="M294" s="8" t="s">
+      <c r="M294" s="7" t="s">
         <v>598</v>
       </c>
-      <c r="N294" s="8" t="s">
+      <c r="N294" s="7" t="s">
         <v>638</v>
       </c>
-      <c r="AB294" s="8" t="s">
-        <v>692</v>
-      </c>
-      <c r="AD294" s="8" t="s">
+      <c r="AB294" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="AD294" s="7" t="s">
         <v>698</v>
       </c>
-      <c r="AH294" s="8" t="s">
+      <c r="AH294" s="7" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="295" spans="1:35" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A295" s="8" t="s">
+    <row r="295" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A295" s="7" t="s">
         <v>50</v>
       </c>
       <c r="B295" t="s">
         <v>63</v>
       </c>
-      <c r="C295" s="8" t="s">
+      <c r="C295" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D295" s="8" t="s">
+      <c r="D295" s="7" t="s">
         <v>141</v>
       </c>
       <c r="E295"/>
-      <c r="F295" s="8" t="s">
+      <c r="F295" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="G295" s="8" t="s">
+      <c r="G295" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="H295" s="8" t="s">
+      <c r="H295" s="7" t="s">
         <v>363</v>
       </c>
       <c r="I295"/>
-      <c r="J295" s="8" t="s">
+      <c r="J295" s="7" t="s">
         <v>453</v>
       </c>
       <c r="K295" s="4" t="s">
         <v>777</v>
       </c>
-      <c r="L295" s="8" t="s">
+      <c r="L295" s="7" t="s">
         <v>565</v>
       </c>
-      <c r="M295" s="8" t="s">
+      <c r="M295" s="7" t="s">
         <v>599</v>
       </c>
-      <c r="N295" s="8" t="s">
+      <c r="N295" s="7" t="s">
         <v>639</v>
       </c>
-      <c r="AB295" s="8" t="s">
-        <v>692</v>
-      </c>
-      <c r="AD295" s="8" t="s">
+      <c r="AB295" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="AD295" s="7" t="s">
         <v>698</v>
       </c>
-      <c r="AH295" s="8" t="s">
+      <c r="AH295" s="7" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="296" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>50</v>
       </c>
@@ -15791,7 +15894,7 @@
       <c r="J296" t="s">
         <v>454</v>
       </c>
-      <c r="K296" s="7" t="s">
+      <c r="K296" s="6" t="s">
         <v>776</v>
       </c>
       <c r="L296" t="s">
@@ -15808,13 +15911,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AJ296">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="16"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AJ296"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
